--- a/NPL NSW 2025 May Position Benchmarks.xlsx
+++ b/NPL NSW 2025 May Position Benchmarks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\PycharmProjects\PlayerDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434219D-9382-4E71-9AE6-064B09EAA4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45841E17-8161-4D66-8840-72418C1DCDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6835DBCD-265D-4EC1-9D29-D56A5BE0D899}"/>
   </bookViews>
   <sheets>
     <sheet name="NPL NSW Positional Benchmarks" sheetId="1" r:id="rId1"/>
+    <sheet name="PAdj Adjuster" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="286">
   <si>
     <t>Name</t>
   </si>
@@ -879,6 +880,21 @@
   </si>
   <si>
     <t>Save %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team </t>
+  </si>
+  <si>
+    <t>Possession</t>
+  </si>
+  <si>
+    <t>Opp. Possession</t>
+  </si>
+  <si>
+    <t>Opp. Possession Time</t>
+  </si>
+  <si>
+    <t>Possession Time</t>
   </si>
 </sst>
 </file>
@@ -888,7 +904,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +937,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -943,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -960,6 +984,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11396,9 +11424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83F9DB4-77E7-497E-BF45-81AA4986C5BD}">
   <dimension ref="A1:AY207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K153" sqref="K153"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11430,7 +11458,7 @@
     <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.90625" style="10" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.08984375" bestFit="1" customWidth="1"/>
@@ -11446,8 +11474,8 @@
     <col min="42" max="42" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="9.81640625" bestFit="1" customWidth="1"/>
@@ -11661,6 +11689,14 @@
         <f>AH2/AJ2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS2" s="7">
+        <f>AP2/(INDEX('PAdj Adjuster'!D:D, MATCH(C2, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="7">
+        <f>AQ2/(INDEX('PAdj Adjuster'!D:D, MATCH(C2, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV2">
         <f>AU2-6.5</f>
         <v>-6.5</v>
@@ -11715,6 +11751,14 @@
         <f t="shared" ref="AI3:AI66" si="7">AH3/AJ3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS3" s="7">
+        <f>AP3/(INDEX('PAdj Adjuster'!D:D, MATCH(C3, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="7">
+        <f>AQ3/(INDEX('PAdj Adjuster'!D:D, MATCH(C3, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV3">
         <f t="shared" ref="AV3:AV66" si="8">AU3-6.5</f>
         <v>-6.5</v>
@@ -11769,6 +11813,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS4" s="7">
+        <f>AP4/(INDEX('PAdj Adjuster'!D:D, MATCH(C4, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="7">
+        <f>AQ4/(INDEX('PAdj Adjuster'!D:D, MATCH(C4, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV4">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -11824,6 +11876,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS5" s="7">
+        <f>AP5/(INDEX('PAdj Adjuster'!D:D, MATCH(C5, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="7">
+        <f>AQ5/(INDEX('PAdj Adjuster'!D:D, MATCH(C5, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV5">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -11878,6 +11938,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS6" s="7">
+        <f>AP6/(INDEX('PAdj Adjuster'!D:D, MATCH(C6, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="7">
+        <f>AQ6/(INDEX('PAdj Adjuster'!D:D, MATCH(C6, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV6">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -11932,6 +12000,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS7" s="7">
+        <f>AP7/(INDEX('PAdj Adjuster'!D:D, MATCH(C7, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="7">
+        <f>AQ7/(INDEX('PAdj Adjuster'!D:D, MATCH(C7, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV7">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -11986,6 +12062,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS8" s="7">
+        <f>AP8/(INDEX('PAdj Adjuster'!D:D, MATCH(C8, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="7">
+        <f>AQ8/(INDEX('PAdj Adjuster'!D:D, MATCH(C8, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV8">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12040,6 +12124,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS9" s="7">
+        <f>AP9/(INDEX('PAdj Adjuster'!D:D, MATCH(C9, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7">
+        <f>AQ9/(INDEX('PAdj Adjuster'!D:D, MATCH(C9, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV9">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12094,6 +12186,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS10" s="7">
+        <f>AP10/(INDEX('PAdj Adjuster'!D:D, MATCH(C10, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="7">
+        <f>AQ10/(INDEX('PAdj Adjuster'!D:D, MATCH(C10, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV10">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12148,6 +12248,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS11" s="7">
+        <f>AP11/(INDEX('PAdj Adjuster'!D:D, MATCH(C11, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="7">
+        <f>AQ11/(INDEX('PAdj Adjuster'!D:D, MATCH(C11, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV11">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12202,6 +12310,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS12" s="7">
+        <f>AP12/(INDEX('PAdj Adjuster'!D:D, MATCH(C12, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="7">
+        <f>AQ12/(INDEX('PAdj Adjuster'!D:D, MATCH(C12, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV12">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12256,6 +12372,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS13" s="7">
+        <f>AP13/(INDEX('PAdj Adjuster'!D:D, MATCH(C13, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="7">
+        <f>AQ13/(INDEX('PAdj Adjuster'!D:D, MATCH(C13, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV13">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12310,6 +12434,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS14" s="7">
+        <f>AP14/(INDEX('PAdj Adjuster'!D:D, MATCH(C14, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="7">
+        <f>AQ14/(INDEX('PAdj Adjuster'!D:D, MATCH(C14, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV14">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12364,6 +12496,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS15" s="7">
+        <f>AP15/(INDEX('PAdj Adjuster'!D:D, MATCH(C15, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="7">
+        <f>AQ15/(INDEX('PAdj Adjuster'!D:D, MATCH(C15, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV15">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12418,6 +12558,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS16" s="7">
+        <f>AP16/(INDEX('PAdj Adjuster'!D:D, MATCH(C16, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="7">
+        <f>AQ16/(INDEX('PAdj Adjuster'!D:D, MATCH(C16, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV16">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12472,6 +12620,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS17" s="7">
+        <f>AP17/(INDEX('PAdj Adjuster'!D:D, MATCH(C17, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="7">
+        <f>AQ17/(INDEX('PAdj Adjuster'!D:D, MATCH(C17, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV17">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12526,6 +12682,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS18" s="7">
+        <f>AP18/(INDEX('PAdj Adjuster'!D:D, MATCH(C18, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="7">
+        <f>AQ18/(INDEX('PAdj Adjuster'!D:D, MATCH(C18, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV18">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12580,6 +12744,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS19" s="7">
+        <f>AP19/(INDEX('PAdj Adjuster'!D:D, MATCH(C19, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="7">
+        <f>AQ19/(INDEX('PAdj Adjuster'!D:D, MATCH(C19, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV19">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12634,6 +12806,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS20" s="7">
+        <f>AP20/(INDEX('PAdj Adjuster'!D:D, MATCH(C20, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="7">
+        <f>AQ20/(INDEX('PAdj Adjuster'!D:D, MATCH(C20, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV20">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12688,6 +12868,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS21" s="7">
+        <f>AP21/(INDEX('PAdj Adjuster'!D:D, MATCH(C21, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="7">
+        <f>AQ21/(INDEX('PAdj Adjuster'!D:D, MATCH(C21, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV21">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12742,6 +12930,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS22" s="7">
+        <f>AP22/(INDEX('PAdj Adjuster'!D:D, MATCH(C22, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="7">
+        <f>AQ22/(INDEX('PAdj Adjuster'!D:D, MATCH(C22, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV22">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12796,6 +12992,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS23" s="7">
+        <f>AP23/(INDEX('PAdj Adjuster'!D:D, MATCH(C23, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="7">
+        <f>AQ23/(INDEX('PAdj Adjuster'!D:D, MATCH(C23, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV23">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12850,6 +13054,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS24" s="7">
+        <f>AP24/(INDEX('PAdj Adjuster'!D:D, MATCH(C24, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="7">
+        <f>AQ24/(INDEX('PAdj Adjuster'!D:D, MATCH(C24, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV24">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12904,6 +13116,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS25" s="7">
+        <f>AP25/(INDEX('PAdj Adjuster'!D:D, MATCH(C25, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT25" s="7">
+        <f>AQ25/(INDEX('PAdj Adjuster'!D:D, MATCH(C25, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV25">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -12958,6 +13178,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS26" s="7">
+        <f>AP26/(INDEX('PAdj Adjuster'!D:D, MATCH(C26, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="7">
+        <f>AQ26/(INDEX('PAdj Adjuster'!D:D, MATCH(C26, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV26">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13012,6 +13240,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS27" s="7">
+        <f>AP27/(INDEX('PAdj Adjuster'!D:D, MATCH(C27, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="7">
+        <f>AQ27/(INDEX('PAdj Adjuster'!D:D, MATCH(C27, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV27">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13066,6 +13302,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS28" s="7">
+        <f>AP28/(INDEX('PAdj Adjuster'!D:D, MATCH(C28, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="7">
+        <f>AQ28/(INDEX('PAdj Adjuster'!D:D, MATCH(C28, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV28">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13120,6 +13364,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS29" s="7">
+        <f>AP29/(INDEX('PAdj Adjuster'!D:D, MATCH(C29, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="7">
+        <f>AQ29/(INDEX('PAdj Adjuster'!D:D, MATCH(C29, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV29">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13174,6 +13426,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS30" s="7">
+        <f>AP30/(INDEX('PAdj Adjuster'!D:D, MATCH(C30, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT30" s="7">
+        <f>AQ30/(INDEX('PAdj Adjuster'!D:D, MATCH(C30, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV30">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13228,6 +13488,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS31" s="7">
+        <f>AP31/(INDEX('PAdj Adjuster'!D:D, MATCH(C31, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT31" s="7">
+        <f>AQ31/(INDEX('PAdj Adjuster'!D:D, MATCH(C31, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV31">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13282,6 +13550,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS32" s="7">
+        <f>AP32/(INDEX('PAdj Adjuster'!D:D, MATCH(C32, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT32" s="7">
+        <f>AQ32/(INDEX('PAdj Adjuster'!D:D, MATCH(C32, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV32">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13336,6 +13612,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS33" s="7">
+        <f>AP33/(INDEX('PAdj Adjuster'!D:D, MATCH(C33, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="7">
+        <f>AQ33/(INDEX('PAdj Adjuster'!D:D, MATCH(C33, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV33">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13390,6 +13674,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS34" s="7">
+        <f>AP34/(INDEX('PAdj Adjuster'!D:D, MATCH(C34, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT34" s="7">
+        <f>AQ34/(INDEX('PAdj Adjuster'!D:D, MATCH(C34, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV34">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13444,6 +13736,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS35" s="7">
+        <f>AP35/(INDEX('PAdj Adjuster'!D:D, MATCH(C35, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="7">
+        <f>AQ35/(INDEX('PAdj Adjuster'!D:D, MATCH(C35, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV35">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13498,6 +13798,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS36" s="7">
+        <f>AP36/(INDEX('PAdj Adjuster'!D:D, MATCH(C36, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="7">
+        <f>AQ36/(INDEX('PAdj Adjuster'!D:D, MATCH(C36, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV36">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13552,6 +13860,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS37" s="7">
+        <f>AP37/(INDEX('PAdj Adjuster'!D:D, MATCH(C37, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="7">
+        <f>AQ37/(INDEX('PAdj Adjuster'!D:D, MATCH(C37, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV37">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13606,6 +13922,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS38" s="7">
+        <f>AP38/(INDEX('PAdj Adjuster'!D:D, MATCH(C38, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT38" s="7">
+        <f>AQ38/(INDEX('PAdj Adjuster'!D:D, MATCH(C38, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV38">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13660,6 +13984,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS39" s="7">
+        <f>AP39/(INDEX('PAdj Adjuster'!D:D, MATCH(C39, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="7">
+        <f>AQ39/(INDEX('PAdj Adjuster'!D:D, MATCH(C39, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV39">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13714,6 +14046,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS40" s="7">
+        <f>AP40/(INDEX('PAdj Adjuster'!D:D, MATCH(C40, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="7">
+        <f>AQ40/(INDEX('PAdj Adjuster'!D:D, MATCH(C40, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV40">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13768,6 +14108,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS41" s="7">
+        <f>AP41/(INDEX('PAdj Adjuster'!D:D, MATCH(C41, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT41" s="7">
+        <f>AQ41/(INDEX('PAdj Adjuster'!D:D, MATCH(C41, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV41">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13822,6 +14170,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS42" s="7">
+        <f>AP42/(INDEX('PAdj Adjuster'!D:D, MATCH(C42, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="7">
+        <f>AQ42/(INDEX('PAdj Adjuster'!D:D, MATCH(C42, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV42">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13876,6 +14232,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS43" s="7">
+        <f>AP43/(INDEX('PAdj Adjuster'!D:D, MATCH(C43, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="7">
+        <f>AQ43/(INDEX('PAdj Adjuster'!D:D, MATCH(C43, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AV43">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13927,6 +14291,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS44" s="7" t="e">
+        <f>AP44/(INDEX('PAdj Adjuster'!D:D, MATCH(C44, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT44" s="7" t="e">
+        <f>AQ44/(INDEX('PAdj Adjuster'!D:D, MATCH(C44, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV44">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -13978,6 +14350,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS45" s="7" t="e">
+        <f>AP45/(INDEX('PAdj Adjuster'!D:D, MATCH(C45, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT45" s="7" t="e">
+        <f>AQ45/(INDEX('PAdj Adjuster'!D:D, MATCH(C45, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV45">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14029,6 +14409,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS46" s="7" t="e">
+        <f>AP46/(INDEX('PAdj Adjuster'!D:D, MATCH(C46, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT46" s="7" t="e">
+        <f>AQ46/(INDEX('PAdj Adjuster'!D:D, MATCH(C46, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV46">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14080,6 +14468,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS47" s="7" t="e">
+        <f>AP47/(INDEX('PAdj Adjuster'!D:D, MATCH(C47, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT47" s="7" t="e">
+        <f>AQ47/(INDEX('PAdj Adjuster'!D:D, MATCH(C47, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV47">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14131,6 +14527,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS48" s="7" t="e">
+        <f>AP48/(INDEX('PAdj Adjuster'!D:D, MATCH(C48, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT48" s="7" t="e">
+        <f>AQ48/(INDEX('PAdj Adjuster'!D:D, MATCH(C48, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV48">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14182,6 +14586,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS49" s="7" t="e">
+        <f>AP49/(INDEX('PAdj Adjuster'!D:D, MATCH(C49, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT49" s="7" t="e">
+        <f>AQ49/(INDEX('PAdj Adjuster'!D:D, MATCH(C49, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV49">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14233,6 +14645,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS50" s="7" t="e">
+        <f>AP50/(INDEX('PAdj Adjuster'!D:D, MATCH(C50, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT50" s="7" t="e">
+        <f>AQ50/(INDEX('PAdj Adjuster'!D:D, MATCH(C50, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV50">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14284,6 +14704,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS51" s="7" t="e">
+        <f>AP51/(INDEX('PAdj Adjuster'!D:D, MATCH(C51, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT51" s="7" t="e">
+        <f>AQ51/(INDEX('PAdj Adjuster'!D:D, MATCH(C51, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV51">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14335,6 +14763,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS52" s="7" t="e">
+        <f>AP52/(INDEX('PAdj Adjuster'!D:D, MATCH(C52, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT52" s="7" t="e">
+        <f>AQ52/(INDEX('PAdj Adjuster'!D:D, MATCH(C52, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV52">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14386,6 +14822,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS53" s="7" t="e">
+        <f>AP53/(INDEX('PAdj Adjuster'!D:D, MATCH(C53, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT53" s="7" t="e">
+        <f>AQ53/(INDEX('PAdj Adjuster'!D:D, MATCH(C53, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV53">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14437,6 +14881,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS54" s="7" t="e">
+        <f>AP54/(INDEX('PAdj Adjuster'!D:D, MATCH(C54, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT54" s="7" t="e">
+        <f>AQ54/(INDEX('PAdj Adjuster'!D:D, MATCH(C54, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV54">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14488,6 +14940,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS55" s="7" t="e">
+        <f>AP55/(INDEX('PAdj Adjuster'!D:D, MATCH(C55, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT55" s="7" t="e">
+        <f>AQ55/(INDEX('PAdj Adjuster'!D:D, MATCH(C55, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV55">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14539,6 +14999,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS56" s="7" t="e">
+        <f>AP56/(INDEX('PAdj Adjuster'!D:D, MATCH(C56, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT56" s="7" t="e">
+        <f>AQ56/(INDEX('PAdj Adjuster'!D:D, MATCH(C56, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV56">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14590,6 +15058,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS57" s="7" t="e">
+        <f>AP57/(INDEX('PAdj Adjuster'!D:D, MATCH(C57, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT57" s="7" t="e">
+        <f>AQ57/(INDEX('PAdj Adjuster'!D:D, MATCH(C57, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV57">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14641,6 +15117,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS58" s="7" t="e">
+        <f>AP58/(INDEX('PAdj Adjuster'!D:D, MATCH(C58, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT58" s="7" t="e">
+        <f>AQ58/(INDEX('PAdj Adjuster'!D:D, MATCH(C58, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV58">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14692,6 +15176,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS59" s="7" t="e">
+        <f>AP59/(INDEX('PAdj Adjuster'!D:D, MATCH(C59, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT59" s="7" t="e">
+        <f>AQ59/(INDEX('PAdj Adjuster'!D:D, MATCH(C59, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV59">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14743,6 +15235,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS60" s="7" t="e">
+        <f>AP60/(INDEX('PAdj Adjuster'!D:D, MATCH(C60, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT60" s="7" t="e">
+        <f>AQ60/(INDEX('PAdj Adjuster'!D:D, MATCH(C60, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV60">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14794,6 +15294,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS61" s="7" t="e">
+        <f>AP61/(INDEX('PAdj Adjuster'!D:D, MATCH(C61, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT61" s="7" t="e">
+        <f>AQ61/(INDEX('PAdj Adjuster'!D:D, MATCH(C61, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV61">
         <f t="shared" si="8"/>
         <v>-6.5</v>
@@ -14926,6 +15434,14 @@
       <c r="AR62">
         <v>0.8</v>
       </c>
+      <c r="AS62" s="7">
+        <f>AP62/(INDEX('PAdj Adjuster'!D:D, MATCH(C62, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.70450097847358117</v>
+      </c>
+      <c r="AT62" s="7">
+        <f>AQ62/(INDEX('PAdj Adjuster'!D:D, MATCH(C62, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.17612524461839529</v>
+      </c>
       <c r="AU62">
         <v>7.04</v>
       </c>
@@ -15067,6 +15583,14 @@
       <c r="AR63">
         <v>1</v>
       </c>
+      <c r="AS63" s="7">
+        <f>AP63/(INDEX('PAdj Adjuster'!D:D, MATCH(C63, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.1834319526627219</v>
+      </c>
+      <c r="AT63" s="7">
+        <f>AQ63/(INDEX('PAdj Adjuster'!D:D, MATCH(C63, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.1183431952662722</v>
+      </c>
       <c r="AU63">
         <v>6.91</v>
       </c>
@@ -15208,6 +15732,14 @@
       <c r="AR64">
         <v>1.7</v>
       </c>
+      <c r="AS64" s="7">
+        <f>AP64/(INDEX('PAdj Adjuster'!D:D, MATCH(C64, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.85551330798479086</v>
+      </c>
+      <c r="AT64" s="7">
+        <f>AQ64/(INDEX('PAdj Adjuster'!D:D, MATCH(C64, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>4.5627376425855508E-2</v>
+      </c>
       <c r="AU64">
         <v>6.56</v>
       </c>
@@ -15349,6 +15881,14 @@
       <c r="AR65">
         <v>1</v>
       </c>
+      <c r="AS65" s="7">
+        <f>AP65/(INDEX('PAdj Adjuster'!D:D, MATCH(C65, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.78358208955223885</v>
+      </c>
+      <c r="AT65" s="7">
+        <f>AQ65/(INDEX('PAdj Adjuster'!D:D, MATCH(C65, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.1119402985074627</v>
+      </c>
       <c r="AU65">
         <v>6.82</v>
       </c>
@@ -15490,6 +16030,14 @@
       <c r="AR66">
         <v>2</v>
       </c>
+      <c r="AS66" s="7">
+        <f>AP66/(INDEX('PAdj Adjuster'!D:D, MATCH(C66, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.77075098814229248</v>
+      </c>
+      <c r="AT66" s="7">
+        <f>AQ66/(INDEX('PAdj Adjuster'!D:D, MATCH(C66, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.17786561264822134</v>
+      </c>
       <c r="AU66">
         <v>6.66</v>
       </c>
@@ -15631,6 +16179,14 @@
       <c r="AR67">
         <v>1</v>
       </c>
+      <c r="AS67" s="7">
+        <f>AP67/(INDEX('PAdj Adjuster'!D:D, MATCH(C67, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.8666666666666669</v>
+      </c>
+      <c r="AT67" s="7">
+        <f>AQ67/(INDEX('PAdj Adjuster'!D:D, MATCH(C67, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.53333333333333344</v>
+      </c>
       <c r="AU67">
         <v>6.9</v>
       </c>
@@ -15772,6 +16328,14 @@
       <c r="AR68">
         <v>0.7</v>
       </c>
+      <c r="AS68" s="7">
+        <f>AP68/(INDEX('PAdj Adjuster'!D:D, MATCH(C68, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.70063694267515941</v>
+      </c>
+      <c r="AT68" s="7">
+        <f>AQ68/(INDEX('PAdj Adjuster'!D:D, MATCH(C68, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.12738853503184716</v>
+      </c>
       <c r="AU68">
         <v>6.69</v>
       </c>
@@ -15913,6 +16477,14 @@
       <c r="AR69">
         <v>1</v>
       </c>
+      <c r="AS69" s="7">
+        <f>AP69/(INDEX('PAdj Adjuster'!D:D, MATCH(C69, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.87837837837837851</v>
+      </c>
+      <c r="AT69" s="7">
+        <f>AQ69/(INDEX('PAdj Adjuster'!D:D, MATCH(C69, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.13513513513513517</v>
+      </c>
       <c r="AU69">
         <v>6.77</v>
       </c>
@@ -16054,6 +16626,14 @@
       <c r="AR70">
         <v>1.2</v>
       </c>
+      <c r="AS70" s="7">
+        <f>AP70/(INDEX('PAdj Adjuster'!D:D, MATCH(C70, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.42596348884381341</v>
+      </c>
+      <c r="AT70" s="7">
+        <f>AQ70/(INDEX('PAdj Adjuster'!D:D, MATCH(C70, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AU70">
         <v>6.63</v>
       </c>
@@ -16195,6 +16775,14 @@
       <c r="AR71">
         <v>0.6</v>
       </c>
+      <c r="AS71" s="7">
+        <f>AP71/(INDEX('PAdj Adjuster'!D:D, MATCH(C71, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.36511156186612576</v>
+      </c>
+      <c r="AT71" s="7">
+        <f>AQ71/(INDEX('PAdj Adjuster'!D:D, MATCH(C71, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.18255578093306288</v>
+      </c>
       <c r="AU71">
         <v>6.71</v>
       </c>
@@ -16336,6 +16924,14 @@
       <c r="AR72">
         <v>0.8</v>
       </c>
+      <c r="AS72" s="7">
+        <f>AP72/(INDEX('PAdj Adjuster'!D:D, MATCH(C72, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.0458715596330275</v>
+      </c>
+      <c r="AT72" s="7">
+        <f>AQ72/(INDEX('PAdj Adjuster'!D:D, MATCH(C72, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.33027522935779813</v>
+      </c>
       <c r="AU72">
         <v>7.22</v>
       </c>
@@ -16477,6 +17073,14 @@
       <c r="AR73">
         <v>0.6</v>
       </c>
+      <c r="AS73" s="7">
+        <f>AP73/(INDEX('PAdj Adjuster'!D:D, MATCH(C73, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.62737642585551334</v>
+      </c>
+      <c r="AT73" s="7">
+        <f>AQ73/(INDEX('PAdj Adjuster'!D:D, MATCH(C73, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AU73">
         <v>6.54</v>
       </c>
@@ -16618,6 +17222,14 @@
       <c r="AR74">
         <v>0.9</v>
       </c>
+      <c r="AS74" s="7">
+        <f>AP74/(INDEX('PAdj Adjuster'!D:D, MATCH(C74, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.2847965738758031</v>
+      </c>
+      <c r="AT74" s="7">
+        <f>AQ74/(INDEX('PAdj Adjuster'!D:D, MATCH(C74, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>6.4239828693790149E-2</v>
+      </c>
       <c r="AU74">
         <v>7.13</v>
       </c>
@@ -16759,6 +17371,14 @@
       <c r="AR75">
         <v>1.9</v>
       </c>
+      <c r="AS75" s="7">
+        <f>AP75/(INDEX('PAdj Adjuster'!D:D, MATCH(C75, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.1287128712871286</v>
+      </c>
+      <c r="AT75" s="7">
+        <f>AQ75/(INDEX('PAdj Adjuster'!D:D, MATCH(C75, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.17821782178217821</v>
+      </c>
       <c r="AU75">
         <v>6.61</v>
       </c>
@@ -16900,6 +17520,14 @@
       <c r="AR76">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AS76" s="7">
+        <f>AP76/(INDEX('PAdj Adjuster'!D:D, MATCH(C76, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.95541401273885374</v>
+      </c>
+      <c r="AT76" s="7">
+        <f>AQ76/(INDEX('PAdj Adjuster'!D:D, MATCH(C76, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>6.369426751592358E-2</v>
+      </c>
       <c r="AU76">
         <v>6.76</v>
       </c>
@@ -17041,6 +17669,14 @@
       <c r="AR77">
         <v>0.1</v>
       </c>
+      <c r="AS77" s="7">
+        <f>AP77/(INDEX('PAdj Adjuster'!D:D, MATCH(C77, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.0282258064516128</v>
+      </c>
+      <c r="AT77" s="7">
+        <f>AQ77/(INDEX('PAdj Adjuster'!D:D, MATCH(C77, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
+      </c>
       <c r="AU77">
         <v>6.79</v>
       </c>
@@ -17182,6 +17818,14 @@
       <c r="AR78">
         <v>1.5</v>
       </c>
+      <c r="AS78" s="7">
+        <f>AP78/(INDEX('PAdj Adjuster'!D:D, MATCH(C78, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.60483870967741937</v>
+      </c>
+      <c r="AT78" s="7">
+        <f>AQ78/(INDEX('PAdj Adjuster'!D:D, MATCH(C78, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.42338709677419351</v>
+      </c>
       <c r="AU78">
         <v>6.48</v>
       </c>
@@ -17242,6 +17886,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS79" s="7" t="e">
+        <f>AP79/(INDEX('PAdj Adjuster'!D:D, MATCH(C79, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT79" s="7" t="e">
+        <f>AQ79/(INDEX('PAdj Adjuster'!D:D, MATCH(C79, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV79">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17293,6 +17945,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS80" s="7" t="e">
+        <f>AP80/(INDEX('PAdj Adjuster'!D:D, MATCH(C80, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT80" s="7" t="e">
+        <f>AQ80/(INDEX('PAdj Adjuster'!D:D, MATCH(C80, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV80">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17344,6 +18004,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS81" s="7" t="e">
+        <f>AP81/(INDEX('PAdj Adjuster'!D:D, MATCH(C81, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT81" s="7" t="e">
+        <f>AQ81/(INDEX('PAdj Adjuster'!D:D, MATCH(C81, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV81">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17395,6 +18063,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS82" s="7" t="e">
+        <f>AP82/(INDEX('PAdj Adjuster'!D:D, MATCH(C82, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT82" s="7" t="e">
+        <f>AQ82/(INDEX('PAdj Adjuster'!D:D, MATCH(C82, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV82">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17446,6 +18122,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS83" s="7" t="e">
+        <f>AP83/(INDEX('PAdj Adjuster'!D:D, MATCH(C83, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT83" s="7" t="e">
+        <f>AQ83/(INDEX('PAdj Adjuster'!D:D, MATCH(C83, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV83">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17497,6 +18181,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS84" s="7" t="e">
+        <f>AP84/(INDEX('PAdj Adjuster'!D:D, MATCH(C84, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT84" s="7" t="e">
+        <f>AQ84/(INDEX('PAdj Adjuster'!D:D, MATCH(C84, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV84">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17548,6 +18240,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS85" s="7" t="e">
+        <f>AP85/(INDEX('PAdj Adjuster'!D:D, MATCH(C85, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT85" s="7" t="e">
+        <f>AQ85/(INDEX('PAdj Adjuster'!D:D, MATCH(C85, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV85">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17599,6 +18299,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS86" s="7" t="e">
+        <f>AP86/(INDEX('PAdj Adjuster'!D:D, MATCH(C86, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT86" s="7" t="e">
+        <f>AQ86/(INDEX('PAdj Adjuster'!D:D, MATCH(C86, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV86">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17650,6 +18358,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS87" s="7" t="e">
+        <f>AP87/(INDEX('PAdj Adjuster'!D:D, MATCH(C87, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT87" s="7" t="e">
+        <f>AQ87/(INDEX('PAdj Adjuster'!D:D, MATCH(C87, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV87">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17701,6 +18417,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS88" s="7" t="e">
+        <f>AP88/(INDEX('PAdj Adjuster'!D:D, MATCH(C88, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT88" s="7" t="e">
+        <f>AQ88/(INDEX('PAdj Adjuster'!D:D, MATCH(C88, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV88">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17752,6 +18476,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS89" s="7" t="e">
+        <f>AP89/(INDEX('PAdj Adjuster'!D:D, MATCH(C89, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT89" s="7" t="e">
+        <f>AQ89/(INDEX('PAdj Adjuster'!D:D, MATCH(C89, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV89">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17803,6 +18535,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS90" s="7" t="e">
+        <f>AP90/(INDEX('PAdj Adjuster'!D:D, MATCH(C90, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT90" s="7" t="e">
+        <f>AQ90/(INDEX('PAdj Adjuster'!D:D, MATCH(C90, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV90">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17854,6 +18594,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS91" s="7" t="e">
+        <f>AP91/(INDEX('PAdj Adjuster'!D:D, MATCH(C91, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT91" s="7" t="e">
+        <f>AQ91/(INDEX('PAdj Adjuster'!D:D, MATCH(C91, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV91">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17905,6 +18653,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS92" s="7" t="e">
+        <f>AP92/(INDEX('PAdj Adjuster'!D:D, MATCH(C92, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT92" s="7" t="e">
+        <f>AQ92/(INDEX('PAdj Adjuster'!D:D, MATCH(C92, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV92">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -17956,6 +18712,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS93" s="7" t="e">
+        <f>AP93/(INDEX('PAdj Adjuster'!D:D, MATCH(C93, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT93" s="7" t="e">
+        <f>AQ93/(INDEX('PAdj Adjuster'!D:D, MATCH(C93, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV93">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18007,6 +18771,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS94" s="7" t="e">
+        <f>AP94/(INDEX('PAdj Adjuster'!D:D, MATCH(C94, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT94" s="7" t="e">
+        <f>AQ94/(INDEX('PAdj Adjuster'!D:D, MATCH(C94, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV94">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18058,6 +18830,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS95" s="7" t="e">
+        <f>AP95/(INDEX('PAdj Adjuster'!D:D, MATCH(C95, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT95" s="7" t="e">
+        <f>AQ95/(INDEX('PAdj Adjuster'!D:D, MATCH(C95, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV95">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18109,6 +18889,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS96" s="7" t="e">
+        <f>AP96/(INDEX('PAdj Adjuster'!D:D, MATCH(C96, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT96" s="7" t="e">
+        <f>AQ96/(INDEX('PAdj Adjuster'!D:D, MATCH(C96, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV96">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18160,6 +18948,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS97" s="7" t="e">
+        <f>AP97/(INDEX('PAdj Adjuster'!D:D, MATCH(C97, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT97" s="7" t="e">
+        <f>AQ97/(INDEX('PAdj Adjuster'!D:D, MATCH(C97, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV97">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18211,6 +19007,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS98" s="7" t="e">
+        <f>AP98/(INDEX('PAdj Adjuster'!D:D, MATCH(C98, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT98" s="7" t="e">
+        <f>AQ98/(INDEX('PAdj Adjuster'!D:D, MATCH(C98, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV98">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18262,6 +19066,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS99" s="7" t="e">
+        <f>AP99/(INDEX('PAdj Adjuster'!D:D, MATCH(C99, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT99" s="7" t="e">
+        <f>AQ99/(INDEX('PAdj Adjuster'!D:D, MATCH(C99, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV99">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18313,6 +19125,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS100" s="7" t="e">
+        <f>AP100/(INDEX('PAdj Adjuster'!D:D, MATCH(C100, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT100" s="7" t="e">
+        <f>AQ100/(INDEX('PAdj Adjuster'!D:D, MATCH(C100, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV100">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18364,6 +19184,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS101" s="7" t="e">
+        <f>AP101/(INDEX('PAdj Adjuster'!D:D, MATCH(C101, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT101" s="7" t="e">
+        <f>AQ101/(INDEX('PAdj Adjuster'!D:D, MATCH(C101, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV101">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18415,6 +19243,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS102" s="7" t="e">
+        <f>AP102/(INDEX('PAdj Adjuster'!D:D, MATCH(C102, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT102" s="7" t="e">
+        <f>AQ102/(INDEX('PAdj Adjuster'!D:D, MATCH(C102, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV102">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18466,6 +19302,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS103" s="7" t="e">
+        <f>AP103/(INDEX('PAdj Adjuster'!D:D, MATCH(C103, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT103" s="7" t="e">
+        <f>AQ103/(INDEX('PAdj Adjuster'!D:D, MATCH(C103, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV103">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18517,6 +19361,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS104" s="7" t="e">
+        <f>AP104/(INDEX('PAdj Adjuster'!D:D, MATCH(C104, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT104" s="7" t="e">
+        <f>AQ104/(INDEX('PAdj Adjuster'!D:D, MATCH(C104, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV104">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18568,6 +19420,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS105" s="7" t="e">
+        <f>AP105/(INDEX('PAdj Adjuster'!D:D, MATCH(C105, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT105" s="7" t="e">
+        <f>AQ105/(INDEX('PAdj Adjuster'!D:D, MATCH(C105, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV105">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18619,6 +19479,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS106" s="7" t="e">
+        <f>AP106/(INDEX('PAdj Adjuster'!D:D, MATCH(C106, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT106" s="7" t="e">
+        <f>AQ106/(INDEX('PAdj Adjuster'!D:D, MATCH(C106, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV106">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18670,6 +19538,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS107" s="7" t="e">
+        <f>AP107/(INDEX('PAdj Adjuster'!D:D, MATCH(C107, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT107" s="7" t="e">
+        <f>AQ107/(INDEX('PAdj Adjuster'!D:D, MATCH(C107, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV107">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18721,6 +19597,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS108" s="7" t="e">
+        <f>AP108/(INDEX('PAdj Adjuster'!D:D, MATCH(C108, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT108" s="7" t="e">
+        <f>AQ108/(INDEX('PAdj Adjuster'!D:D, MATCH(C108, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV108">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18772,6 +19656,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS109" s="7" t="e">
+        <f>AP109/(INDEX('PAdj Adjuster'!D:D, MATCH(C109, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT109" s="7" t="e">
+        <f>AQ109/(INDEX('PAdj Adjuster'!D:D, MATCH(C109, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV109">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18823,6 +19715,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS110" s="7" t="e">
+        <f>AP110/(INDEX('PAdj Adjuster'!D:D, MATCH(C110, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT110" s="7" t="e">
+        <f>AQ110/(INDEX('PAdj Adjuster'!D:D, MATCH(C110, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV110">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18874,6 +19774,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS111" s="7" t="e">
+        <f>AP111/(INDEX('PAdj Adjuster'!D:D, MATCH(C111, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT111" s="7" t="e">
+        <f>AQ111/(INDEX('PAdj Adjuster'!D:D, MATCH(C111, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV111">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18925,6 +19833,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS112" s="7" t="e">
+        <f>AP112/(INDEX('PAdj Adjuster'!D:D, MATCH(C112, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT112" s="7" t="e">
+        <f>AQ112/(INDEX('PAdj Adjuster'!D:D, MATCH(C112, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV112">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -18976,6 +19892,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS113" s="7" t="e">
+        <f>AP113/(INDEX('PAdj Adjuster'!D:D, MATCH(C113, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT113" s="7" t="e">
+        <f>AQ113/(INDEX('PAdj Adjuster'!D:D, MATCH(C113, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV113">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19027,6 +19951,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS114" s="7" t="e">
+        <f>AP114/(INDEX('PAdj Adjuster'!D:D, MATCH(C114, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT114" s="7" t="e">
+        <f>AQ114/(INDEX('PAdj Adjuster'!D:D, MATCH(C114, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV114">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19078,6 +20010,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS115" s="7" t="e">
+        <f>AP115/(INDEX('PAdj Adjuster'!D:D, MATCH(C115, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT115" s="7" t="e">
+        <f>AQ115/(INDEX('PAdj Adjuster'!D:D, MATCH(C115, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV115">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19129,6 +20069,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS116" s="7" t="e">
+        <f>AP116/(INDEX('PAdj Adjuster'!D:D, MATCH(C116, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT116" s="7" t="e">
+        <f>AQ116/(INDEX('PAdj Adjuster'!D:D, MATCH(C116, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV116">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19180,6 +20128,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS117" s="7" t="e">
+        <f>AP117/(INDEX('PAdj Adjuster'!D:D, MATCH(C117, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT117" s="7" t="e">
+        <f>AQ117/(INDEX('PAdj Adjuster'!D:D, MATCH(C117, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV117">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19231,6 +20187,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS118" s="7" t="e">
+        <f>AP118/(INDEX('PAdj Adjuster'!D:D, MATCH(C118, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT118" s="7" t="e">
+        <f>AQ118/(INDEX('PAdj Adjuster'!D:D, MATCH(C118, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV118">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19282,6 +20246,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS119" s="7" t="e">
+        <f>AP119/(INDEX('PAdj Adjuster'!D:D, MATCH(C119, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT119" s="7" t="e">
+        <f>AQ119/(INDEX('PAdj Adjuster'!D:D, MATCH(C119, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV119">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19333,6 +20305,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS120" s="7" t="e">
+        <f>AP120/(INDEX('PAdj Adjuster'!D:D, MATCH(C120, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT120" s="7" t="e">
+        <f>AQ120/(INDEX('PAdj Adjuster'!D:D, MATCH(C120, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV120">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19384,6 +20364,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS121" s="7" t="e">
+        <f>AP121/(INDEX('PAdj Adjuster'!D:D, MATCH(C121, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT121" s="7" t="e">
+        <f>AQ121/(INDEX('PAdj Adjuster'!D:D, MATCH(C121, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV121">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19435,6 +20423,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS122" s="7" t="e">
+        <f>AP122/(INDEX('PAdj Adjuster'!D:D, MATCH(C122, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT122" s="7" t="e">
+        <f>AQ122/(INDEX('PAdj Adjuster'!D:D, MATCH(C122, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV122">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19486,6 +20482,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS123" s="7" t="e">
+        <f>AP123/(INDEX('PAdj Adjuster'!D:D, MATCH(C123, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT123" s="7" t="e">
+        <f>AQ123/(INDEX('PAdj Adjuster'!D:D, MATCH(C123, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV123">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19537,6 +20541,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS124" s="7" t="e">
+        <f>AP124/(INDEX('PAdj Adjuster'!D:D, MATCH(C124, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT124" s="7" t="e">
+        <f>AQ124/(INDEX('PAdj Adjuster'!D:D, MATCH(C124, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV124">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19588,6 +20600,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS125" s="7" t="e">
+        <f>AP125/(INDEX('PAdj Adjuster'!D:D, MATCH(C125, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT125" s="7" t="e">
+        <f>AQ125/(INDEX('PAdj Adjuster'!D:D, MATCH(C125, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV125">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19639,6 +20659,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS126" s="7" t="e">
+        <f>AP126/(INDEX('PAdj Adjuster'!D:D, MATCH(C126, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT126" s="7" t="e">
+        <f>AQ126/(INDEX('PAdj Adjuster'!D:D, MATCH(C126, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV126">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19690,6 +20718,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS127" s="7" t="e">
+        <f>AP127/(INDEX('PAdj Adjuster'!D:D, MATCH(C127, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT127" s="7" t="e">
+        <f>AQ127/(INDEX('PAdj Adjuster'!D:D, MATCH(C127, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV127">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19741,6 +20777,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS128" s="7" t="e">
+        <f>AP128/(INDEX('PAdj Adjuster'!D:D, MATCH(C128, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT128" s="7" t="e">
+        <f>AQ128/(INDEX('PAdj Adjuster'!D:D, MATCH(C128, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV128">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19792,6 +20836,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS129" s="7" t="e">
+        <f>AP129/(INDEX('PAdj Adjuster'!D:D, MATCH(C129, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT129" s="7" t="e">
+        <f>AQ129/(INDEX('PAdj Adjuster'!D:D, MATCH(C129, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV129">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19843,6 +20895,14 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS130" s="7" t="e">
+        <f>AP130/(INDEX('PAdj Adjuster'!D:D, MATCH(C130, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT130" s="7" t="e">
+        <f>AQ130/(INDEX('PAdj Adjuster'!D:D, MATCH(C130, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV130">
         <f t="shared" si="18"/>
         <v>-6.5</v>
@@ -19894,6 +20954,14 @@
         <f t="shared" ref="AI131:AI194" si="28">AH131/AJ131</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS131" s="7" t="e">
+        <f>AP131/(INDEX('PAdj Adjuster'!D:D, MATCH(C131, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT131" s="7" t="e">
+        <f>AQ131/(INDEX('PAdj Adjuster'!D:D, MATCH(C131, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV131">
         <f t="shared" ref="AV131:AV194" si="29">AU131-6.5</f>
         <v>-6.5</v>
@@ -19945,6 +21013,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS132" s="7" t="e">
+        <f>AP132/(INDEX('PAdj Adjuster'!D:D, MATCH(C132, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT132" s="7" t="e">
+        <f>AQ132/(INDEX('PAdj Adjuster'!D:D, MATCH(C132, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV132">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -19996,6 +21072,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS133" s="7" t="e">
+        <f>AP133/(INDEX('PAdj Adjuster'!D:D, MATCH(C133, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT133" s="7" t="e">
+        <f>AQ133/(INDEX('PAdj Adjuster'!D:D, MATCH(C133, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV133">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -20047,6 +21131,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS134" s="7" t="e">
+        <f>AP134/(INDEX('PAdj Adjuster'!D:D, MATCH(C134, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT134" s="7" t="e">
+        <f>AQ134/(INDEX('PAdj Adjuster'!D:D, MATCH(C134, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV134">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -20098,6 +21190,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS135" s="7" t="e">
+        <f>AP135/(INDEX('PAdj Adjuster'!D:D, MATCH(C135, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT135" s="7" t="e">
+        <f>AQ135/(INDEX('PAdj Adjuster'!D:D, MATCH(C135, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV135">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -20149,6 +21249,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS136" s="7" t="e">
+        <f>AP136/(INDEX('PAdj Adjuster'!D:D, MATCH(C136, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT136" s="7" t="e">
+        <f>AQ136/(INDEX('PAdj Adjuster'!D:D, MATCH(C136, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV136">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -20200,6 +21308,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS137" s="7" t="e">
+        <f>AP137/(INDEX('PAdj Adjuster'!D:D, MATCH(C137, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT137" s="7" t="e">
+        <f>AQ137/(INDEX('PAdj Adjuster'!D:D, MATCH(C137, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV137">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -20216,6 +21332,9 @@
       <c r="B138" t="s">
         <v>253</v>
       </c>
+      <c r="C138" t="s">
+        <v>272</v>
+      </c>
       <c r="D138" s="9">
         <v>1350</v>
       </c>
@@ -20348,6 +21467,14 @@
       </c>
       <c r="AR138">
         <v>0</v>
+      </c>
+      <c r="AS138" s="7">
+        <f>AP138/(INDEX('PAdj Adjuster'!D:D, MATCH(C138, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.4677103718199609</v>
+      </c>
+      <c r="AT138" s="7">
+        <f>AQ138/(INDEX('PAdj Adjuster'!D:D, MATCH(C138, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="AV138">
         <f t="shared" si="29"/>
@@ -20371,6 +21498,9 @@
       <c r="B139" t="s">
         <v>253</v>
       </c>
+      <c r="C139" t="s">
+        <v>261</v>
+      </c>
       <c r="D139" s="9">
         <v>1350</v>
       </c>
@@ -20503,6 +21633,14 @@
       </c>
       <c r="AR139">
         <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS139" s="7">
+        <f>AP139/(INDEX('PAdj Adjuster'!D:D, MATCH(C139, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.95049504950495045</v>
+      </c>
+      <c r="AT139" s="7">
+        <f>AQ139/(INDEX('PAdj Adjuster'!D:D, MATCH(C139, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV139">
         <f t="shared" si="29"/>
@@ -20526,6 +21664,9 @@
       <c r="B140" t="s">
         <v>253</v>
       </c>
+      <c r="C140" t="s">
+        <v>266</v>
+      </c>
       <c r="D140" s="9">
         <v>1350</v>
       </c>
@@ -20658,6 +21799,14 @@
       </c>
       <c r="AR140">
         <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS140" s="7">
+        <f>AP140/(INDEX('PAdj Adjuster'!D:D, MATCH(C140, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.8875739644970414</v>
+      </c>
+      <c r="AT140" s="7">
+        <f>AQ140/(INDEX('PAdj Adjuster'!D:D, MATCH(C140, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV140">
         <f t="shared" si="29"/>
@@ -20681,6 +21830,9 @@
       <c r="B141" t="s">
         <v>253</v>
       </c>
+      <c r="C141" t="s">
+        <v>262</v>
+      </c>
       <c r="D141" s="9">
         <v>1350</v>
       </c>
@@ -20716,45 +21868,125 @@
         <f t="shared" si="35"/>
         <v>-0.6399999999999999</v>
       </c>
+      <c r="O141" s="2">
+        <v>0</v>
+      </c>
+      <c r="P141" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>0</v>
+      </c>
       <c r="R141" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U141" s="2" t="e">
+      <c r="S141" s="10">
+        <v>0</v>
+      </c>
+      <c r="T141" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="U141" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>25</v>
+      </c>
+      <c r="V141" s="10">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="W141" s="7">
+        <v>0</v>
+      </c>
+      <c r="X141" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="7">
+        <v>0</v>
       </c>
       <c r="Z141" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC141" s="2" t="e">
+      <c r="AA141" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB141" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC141" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>7.7049180327868854</v>
+      </c>
+      <c r="AD141" s="10">
+        <v>0.61</v>
       </c>
       <c r="AE141">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF141" s="2" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="AF141" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG141" s="8" t="e">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AG141" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI141" s="2" t="e">
+        <v>0.48571428571428577</v>
+      </c>
+      <c r="AH141">
+        <v>0.5</v>
+      </c>
+      <c r="AI141" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
+      </c>
+      <c r="AJ141" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0.1</v>
+      </c>
+      <c r="AM141" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO141" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>2.1</v>
+      </c>
+      <c r="AQ141" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AR141">
+        <v>0.06</v>
+      </c>
+      <c r="AS141" s="7">
+        <f>AP141/(INDEX('PAdj Adjuster'!D:D, MATCH(C141, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.2256809338521402</v>
+      </c>
+      <c r="AT141" s="7">
+        <f>AQ141/(INDEX('PAdj Adjuster'!D:D, MATCH(C141, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>5.8365758754863821E-2</v>
       </c>
       <c r="AV141">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX141" s="7" t="e">
+      <c r="AW141">
+        <v>0.9</v>
+      </c>
+      <c r="AX141" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1.3235294117647058</v>
+      </c>
+      <c r="AY141" s="8">
+        <v>0.68</v>
       </c>
     </row>
     <row r="142" spans="1:51" x14ac:dyDescent="0.35">
@@ -20764,6 +21996,9 @@
       <c r="B142" t="s">
         <v>253</v>
       </c>
+      <c r="C142" t="s">
+        <v>260</v>
+      </c>
       <c r="D142" s="9">
         <v>1350</v>
       </c>
@@ -20799,45 +22034,125 @@
         <f t="shared" si="35"/>
         <v>-7.0000000000000062E-2</v>
       </c>
-      <c r="R142" s="2" t="e">
+      <c r="O142" s="2">
+        <v>0</v>
+      </c>
+      <c r="P142" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R142" s="2">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U142" s="2" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="S142" s="10">
+        <v>1</v>
+      </c>
+      <c r="T142" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="U142" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>10.978260869565217</v>
+      </c>
+      <c r="V142" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="W142" s="7">
+        <v>0</v>
+      </c>
+      <c r="X142" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="7">
+        <v>0</v>
       </c>
       <c r="Z142" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC142" s="2" t="e">
+      <c r="AA142" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AC142" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>1.6791044776119401</v>
+      </c>
+      <c r="AD142" s="10">
+        <v>0.53600000000000003</v>
       </c>
       <c r="AE142">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF142" s="2" t="e">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="AF142" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG142" s="8" t="e">
+        <v>0.56154053326151343</v>
+      </c>
+      <c r="AG142" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI142" s="2" t="e">
+        <v>0.53424460431654686</v>
+      </c>
+      <c r="AH142">
+        <v>0.9</v>
+      </c>
+      <c r="AI142" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="AJ142" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="AK142">
+        <v>0.06</v>
+      </c>
+      <c r="AL142">
+        <v>0.2</v>
+      </c>
+      <c r="AM142" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>0.9</v>
+      </c>
+      <c r="AO142" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>0.9</v>
+      </c>
+      <c r="AQ142" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR142">
+        <v>0.2</v>
+      </c>
+      <c r="AS142" s="7">
+        <f>AP142/(INDEX('PAdj Adjuster'!D:D, MATCH(C142, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.5781584582441115</v>
+      </c>
+      <c r="AT142" s="7">
+        <f>AQ142/(INDEX('PAdj Adjuster'!D:D, MATCH(C142, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV142">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX142" s="7" t="e">
+      <c r="AW142">
+        <v>1.2</v>
+      </c>
+      <c r="AX142" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1.5189873417721518</v>
+      </c>
+      <c r="AY142" s="8">
+        <v>0.79</v>
       </c>
     </row>
     <row r="143" spans="1:51" x14ac:dyDescent="0.35">
@@ -20847,6 +22162,9 @@
       <c r="B143" t="s">
         <v>253</v>
       </c>
+      <c r="C143" t="s">
+        <v>267</v>
+      </c>
       <c r="D143" s="9">
         <v>1350</v>
       </c>
@@ -20882,45 +22200,125 @@
         <f t="shared" si="35"/>
         <v>-0.38000000000000012</v>
       </c>
+      <c r="O143" s="2">
+        <v>0</v>
+      </c>
+      <c r="P143" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>0</v>
+      </c>
       <c r="R143" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U143" s="2" t="e">
+      <c r="S143" s="10">
+        <v>0</v>
+      </c>
+      <c r="T143" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="U143" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>22.366863905325442</v>
+      </c>
+      <c r="V143" s="10">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="W143" s="7">
+        <v>0</v>
+      </c>
+      <c r="X143" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="7">
+        <v>0</v>
       </c>
       <c r="Z143" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC143" s="2" t="e">
+      <c r="AA143" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB143" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC143" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>8.2770270270270281</v>
+      </c>
+      <c r="AD143" s="10">
+        <v>0.59199999999999997</v>
       </c>
       <c r="AE143">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF143" s="2" t="e">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF143" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG143" s="8" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AG143" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI143" s="2" t="e">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AH143">
+        <v>0.5</v>
+      </c>
+      <c r="AI143" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
+      </c>
+      <c r="AJ143" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK143">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>0.5</v>
+      </c>
+      <c r="AO143" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP143">
+        <v>1.8</v>
+      </c>
+      <c r="AQ143" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR143">
+        <v>0.1</v>
+      </c>
+      <c r="AS143" s="7">
+        <f>AP143/(INDEX('PAdj Adjuster'!D:D, MATCH(C143, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.088709677419355</v>
+      </c>
+      <c r="AT143" s="7">
+        <f>AQ143/(INDEX('PAdj Adjuster'!D:D, MATCH(C143, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV143">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX143" s="7" t="e">
+      <c r="AW143">
+        <v>0.8</v>
+      </c>
+      <c r="AX143" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AY143" s="8">
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:51" x14ac:dyDescent="0.35">
@@ -20930,6 +22328,9 @@
       <c r="B144" t="s">
         <v>253</v>
       </c>
+      <c r="C144" t="s">
+        <v>270</v>
+      </c>
       <c r="D144" s="9">
         <v>1260</v>
       </c>
@@ -20946,64 +22347,156 @@
         <v>0</v>
       </c>
       <c r="I144" s="2">
-        <v>3.93</v>
-      </c>
-      <c r="J144" s="2" t="e">
+        <v>3.7</v>
+      </c>
+      <c r="J144" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>5.0684931506849322</v>
+      </c>
+      <c r="K144" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="L144" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M144" s="2">
+        <v>1.5</v>
       </c>
       <c r="N144" s="2">
         <f t="shared" si="35"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O144" s="2">
+        <v>0</v>
+      </c>
+      <c r="P144" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="2">
         <v>0</v>
       </c>
       <c r="R144" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U144" s="2" t="e">
+      <c r="S144" s="10">
+        <v>0</v>
+      </c>
+      <c r="T144" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="U144" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>19.769119769119769</v>
+      </c>
+      <c r="V144" s="10">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="W144" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X144" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="7">
+        <v>0</v>
       </c>
       <c r="Z144" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC144" s="2" t="e">
+      <c r="AA144" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB144" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC144" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>10.068649885583525</v>
+      </c>
+      <c r="AD144" s="10">
+        <v>0.437</v>
       </c>
       <c r="AE144">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF144" s="2" t="e">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="AF144" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG144" s="8" t="e">
+        <v>0.36559139784946237</v>
+      </c>
+      <c r="AG144" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI144" s="2" t="e">
+        <v>0.8205882352941174</v>
+      </c>
+      <c r="AH144">
+        <v>0.9</v>
+      </c>
+      <c r="AI144" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.96774193548387089</v>
+      </c>
+      <c r="AJ144" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>0.2</v>
+      </c>
+      <c r="AM144" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>0.6</v>
+      </c>
+      <c r="AO144" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP144">
+        <v>1.7</v>
+      </c>
+      <c r="AQ144" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR144">
+        <v>0</v>
+      </c>
+      <c r="AS144" s="7">
+        <f>AP144/(INDEX('PAdj Adjuster'!D:D, MATCH(C144, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.95149253731343286</v>
+      </c>
+      <c r="AT144" s="7">
+        <f>AQ144/(INDEX('PAdj Adjuster'!D:D, MATCH(C144, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV144">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX144" s="7" t="e">
+      <c r="AW144">
+        <v>1.2</v>
+      </c>
+      <c r="AX144" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AY144" s="8">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>81</v>
       </c>
       <c r="B145" t="s">
         <v>253</v>
       </c>
+      <c r="C145" t="s">
+        <v>274</v>
+      </c>
       <c r="D145" s="9">
         <v>1260</v>
       </c>
@@ -21022,62 +22515,154 @@
       <c r="I145" s="2">
         <v>4.79</v>
       </c>
-      <c r="J145" s="2" t="e">
+      <c r="J145" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>6.746478873239437</v>
+      </c>
+      <c r="K145" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="L145" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M145" s="2">
+        <v>2.0299999999999998</v>
       </c>
       <c r="N145" s="2">
         <f t="shared" si="35"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="O145" s="2">
+        <v>0</v>
+      </c>
+      <c r="P145" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="2">
         <v>0</v>
       </c>
       <c r="R145" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U145" s="2" t="e">
+      <c r="S145" s="10">
+        <v>0</v>
+      </c>
+      <c r="T145" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="U145" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>24.738219895287955</v>
+      </c>
+      <c r="V145" s="10">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="W145" s="7">
+        <v>0</v>
+      </c>
+      <c r="X145" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="7">
+        <v>0</v>
       </c>
       <c r="Z145" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC145" s="2" t="e">
+      <c r="AA145" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AC145" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>10.204081632653061</v>
+      </c>
+      <c r="AD145" s="10">
+        <v>0.441</v>
       </c>
       <c r="AE145">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF145" s="2" t="e">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AF145" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG145" s="8" t="e">
+        <v>0.24102564102564095</v>
+      </c>
+      <c r="AG145" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI145" s="2" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.41489361702127664</v>
+      </c>
+      <c r="AH145">
+        <v>0.4</v>
+      </c>
+      <c r="AI145" s="12">
+        <f>AH145/AJ145</f>
+        <v>0.4</v>
+      </c>
+      <c r="AJ145" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK145">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AM145" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>0.3</v>
+      </c>
+      <c r="AO145" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ145" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR145">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS145" s="7">
+        <f>AP145/(INDEX('PAdj Adjuster'!D:D, MATCH(C145, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.66937119675456402</v>
+      </c>
+      <c r="AT145" s="7">
+        <f>AQ145/(INDEX('PAdj Adjuster'!D:D, MATCH(C145, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>4.2596348884381345E-2</v>
       </c>
       <c r="AV145">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX145" s="7" t="e">
+      <c r="AW145">
+        <v>0.5</v>
+      </c>
+      <c r="AX145" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="AY145" s="8">
+        <v>0.78</v>
       </c>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>106</v>
       </c>
       <c r="B146" t="s">
         <v>253</v>
       </c>
+      <c r="C146" t="s">
+        <v>268</v>
+      </c>
       <c r="D146" s="9">
         <v>1170</v>
       </c>
@@ -21094,64 +22679,156 @@
         <v>0</v>
       </c>
       <c r="I146" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="J146" s="2" t="e">
+        <v>3.1</v>
+      </c>
+      <c r="J146" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>4.4927536231884062</v>
+      </c>
+      <c r="K146" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="L146" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M146" s="2">
+        <v>1.39</v>
       </c>
       <c r="N146" s="2">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="R146" s="2" t="e">
+        <f>M146-L146</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="O146" s="2">
+        <v>0</v>
+      </c>
+      <c r="P146" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R146" s="2">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U146" s="2" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="S146" s="10">
+        <v>1</v>
+      </c>
+      <c r="T146" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="U146" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>18.607764390896921</v>
+      </c>
+      <c r="V146" s="10">
+        <v>0.747</v>
+      </c>
+      <c r="W146" s="7">
+        <v>0</v>
+      </c>
+      <c r="X146" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="7">
+        <v>0</v>
       </c>
       <c r="Z146" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC146" s="2" t="e">
+      <c r="AA146" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AC146" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>8.297872340425533</v>
+      </c>
+      <c r="AD146" s="10">
+        <v>0.47</v>
       </c>
       <c r="AE146">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AF146" s="2" t="e">
+      <c r="AF146" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG146" s="8" t="e">
+        <v>0.13285024154589375</v>
+      </c>
+      <c r="AG146" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI146" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0.9</v>
+      </c>
+      <c r="AI146" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="AJ146" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>0.1</v>
+      </c>
+      <c r="AM146" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>0.9</v>
+      </c>
+      <c r="AO146" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP146">
+        <v>1.3</v>
+      </c>
+      <c r="AQ146" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR146">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS146" s="7">
+        <f>AP146/(INDEX('PAdj Adjuster'!D:D, MATCH(C146, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.7155963302752294</v>
+      </c>
+      <c r="AT146" s="7">
+        <f>AQ146/(INDEX('PAdj Adjuster'!D:D, MATCH(C146, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV146">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX146" s="7" t="e">
+      <c r="AW146">
+        <v>0.9</v>
+      </c>
+      <c r="AX146" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AY146" s="8">
+        <v>0.81</v>
       </c>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>112</v>
       </c>
       <c r="B147" t="s">
         <v>253</v>
       </c>
+      <c r="C147" t="s">
+        <v>265</v>
+      </c>
       <c r="D147" s="9">
         <v>1170</v>
       </c>
@@ -21170,62 +22847,154 @@
       <c r="I147" s="2">
         <v>2.62</v>
       </c>
-      <c r="J147" s="2" t="e">
+      <c r="J147" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>4.4406779661016955</v>
+      </c>
+      <c r="K147" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="L147" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="M147" s="2">
+        <v>1.04</v>
       </c>
       <c r="N147" s="2">
         <f t="shared" si="35"/>
+        <v>-0.76</v>
+      </c>
+      <c r="O147" s="2">
+        <v>0</v>
+      </c>
+      <c r="P147" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="2">
         <v>0</v>
       </c>
       <c r="R147" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U147" s="2" t="e">
+      <c r="S147" s="10">
+        <v>0</v>
+      </c>
+      <c r="T147" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="U147" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>19.667943805874842</v>
+      </c>
+      <c r="V147" s="10">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="W147" s="7">
+        <v>0</v>
+      </c>
+      <c r="X147" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="7">
+        <v>0</v>
       </c>
       <c r="Z147" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC147" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AA147" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AC147" s="2">
+        <f>AB147/AD147</f>
+        <v>7.0175438596491233</v>
+      </c>
+      <c r="AD147" s="10">
+        <v>0.45600000000000002</v>
       </c>
       <c r="AE147">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF147" s="2" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="AF147" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG147" s="8" t="e">
+        <v>0.23333333333333336</v>
+      </c>
+      <c r="AG147" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI147" s="2" t="e">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AH147">
+        <v>0.1</v>
+      </c>
+      <c r="AI147" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.1</v>
+      </c>
+      <c r="AJ147" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>0.08</v>
+      </c>
+      <c r="AM147" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>0.3</v>
+      </c>
+      <c r="AO147" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP147">
+        <v>1.5</v>
+      </c>
+      <c r="AQ147" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR147">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="7">
+        <f>AP147/(INDEX('PAdj Adjuster'!D:D, MATCH(C147, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.0135135135135138</v>
+      </c>
+      <c r="AT147" s="7">
+        <f>AQ147/(INDEX('PAdj Adjuster'!D:D, MATCH(C147, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV147">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX147" s="7" t="e">
+      <c r="AW147">
+        <v>0.2</v>
+      </c>
+      <c r="AX147" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AY147" s="8">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>130</v>
       </c>
       <c r="B148" t="s">
         <v>253</v>
       </c>
+      <c r="C148" t="s">
+        <v>275</v>
+      </c>
       <c r="D148" s="9">
         <v>1080</v>
       </c>
@@ -21242,64 +23011,156 @@
         <v>0</v>
       </c>
       <c r="I148" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="J148" s="2" t="e">
+        <v>5.2</v>
+      </c>
+      <c r="J148" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>7.0270270270270272</v>
+      </c>
+      <c r="K148" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="L148" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="M148" s="2">
+        <v>1.87</v>
       </c>
       <c r="N148" s="2">
         <f t="shared" si="35"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="O148" s="2">
+        <v>0</v>
+      </c>
+      <c r="P148" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="2">
         <v>0</v>
       </c>
       <c r="R148" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U148" s="2" t="e">
+      <c r="S148" s="10">
+        <v>0</v>
+      </c>
+      <c r="T148" s="2">
+        <v>29</v>
+      </c>
+      <c r="U148" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>33.918128654970758</v>
+      </c>
+      <c r="V148" s="10">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="W148" s="7">
+        <v>0</v>
+      </c>
+      <c r="X148" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="7">
+        <v>0</v>
       </c>
       <c r="Z148" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC148" s="2" t="e">
+      <c r="AA148" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC148" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>8.8122605363984672</v>
+      </c>
+      <c r="AD148" s="10">
+        <v>0.52200000000000002</v>
       </c>
       <c r="AE148">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF148" s="2" t="e">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AF148" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG148" s="8" t="e">
+        <v>0.26449275362318858</v>
+      </c>
+      <c r="AG148" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI148" s="2" t="e">
+        <v>0.37808219178082159</v>
+      </c>
+      <c r="AH148">
+        <v>0.6</v>
+      </c>
+      <c r="AI148" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="AJ148" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AK148">
+        <v>0.08</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>0.4</v>
+      </c>
+      <c r="AO148" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP148">
+        <v>2</v>
+      </c>
+      <c r="AQ148" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR148">
+        <v>0.08</v>
+      </c>
+      <c r="AS148" s="7">
+        <f>AP148/(INDEX('PAdj Adjuster'!D:D, MATCH(C148, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.1857707509881423</v>
+      </c>
+      <c r="AT148" s="7">
+        <f>AQ148/(INDEX('PAdj Adjuster'!D:D, MATCH(C148, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV148">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX148" s="7" t="e">
+      <c r="AW148">
+        <v>0.7</v>
+      </c>
+      <c r="AX148" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1.0144927536231885</v>
+      </c>
+      <c r="AY148" s="8">
+        <v>0.69</v>
       </c>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>131</v>
       </c>
       <c r="B149" t="s">
         <v>253</v>
       </c>
+      <c r="C149" t="s">
+        <v>263</v>
+      </c>
       <c r="D149" s="9">
         <v>1080</v>
       </c>
@@ -21318,62 +23179,154 @@
       <c r="I149" s="2">
         <v>3.92</v>
       </c>
-      <c r="J149" s="2" t="e">
+      <c r="J149" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="K149" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="L149" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="M149" s="2">
+        <v>1.3</v>
       </c>
       <c r="N149" s="2">
         <f t="shared" si="35"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="O149" s="2">
+        <v>0</v>
+      </c>
+      <c r="P149" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="2">
         <v>0</v>
       </c>
       <c r="R149" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U149" s="2" t="e">
+      <c r="S149" s="10">
+        <v>0</v>
+      </c>
+      <c r="T149" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="U149" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>26.231527093596057</v>
+      </c>
+      <c r="V149" s="10">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="W149" s="7">
+        <v>0</v>
+      </c>
+      <c r="X149" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="7">
+        <v>0</v>
       </c>
       <c r="Z149" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC149" s="2" t="e">
+      <c r="AA149" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC149" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>8.3809523809523814</v>
+      </c>
+      <c r="AD149" s="10">
+        <v>0.52500000000000002</v>
       </c>
       <c r="AE149">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AF149" s="2" t="e">
+      <c r="AF149" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG149" s="8" t="e">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="AG149" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI149" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>0.4</v>
+      </c>
+      <c r="AI149" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
+      </c>
+      <c r="AJ149" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0.08</v>
+      </c>
+      <c r="AM149" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO149" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP149">
+        <v>1.8</v>
+      </c>
+      <c r="AQ149" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR149">
+        <v>0.08</v>
+      </c>
+      <c r="AS149" s="7">
+        <f>AP149/(INDEX('PAdj Adjuster'!D:D, MATCH(C149, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.0266159695817492</v>
+      </c>
+      <c r="AT149" s="7">
+        <f>AQ149/(INDEX('PAdj Adjuster'!D:D, MATCH(C149, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV149">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX149" s="7" t="e">
+      <c r="AW149">
+        <v>0.4</v>
+      </c>
+      <c r="AX149" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AY149" s="8">
+        <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>132</v>
       </c>
       <c r="B150" t="s">
         <v>253</v>
       </c>
+      <c r="C150" t="s">
+        <v>264</v>
+      </c>
       <c r="D150" s="9">
         <v>1080</v>
       </c>
@@ -21392,62 +23345,154 @@
       <c r="I150" s="2">
         <v>3.67</v>
       </c>
-      <c r="J150" s="2" t="e">
+      <c r="J150" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>5.4776119402985071</v>
+      </c>
+      <c r="K150" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="L150" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="M150" s="2">
+        <v>1.56</v>
       </c>
       <c r="N150" s="2">
         <f t="shared" si="35"/>
+        <v>-0.24</v>
+      </c>
+      <c r="O150" s="2">
+        <v>0</v>
+      </c>
+      <c r="P150" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="2">
         <v>0</v>
       </c>
       <c r="R150" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U150" s="2" t="e">
+      <c r="S150" s="10">
+        <v>0</v>
+      </c>
+      <c r="T150" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="U150" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>25.748502994011979</v>
+      </c>
+      <c r="V150" s="10">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="W150" s="7">
+        <v>0</v>
+      </c>
+      <c r="X150" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="7">
+        <v>0</v>
       </c>
       <c r="Z150" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC150" s="2" t="e">
+      <c r="AA150" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB150" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AC150" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="AD150" s="10">
+        <v>0.58799999999999997</v>
       </c>
       <c r="AE150">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF150" s="2" t="e">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AF150" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG150" s="8" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AG150" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI150" s="2" t="e">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AH150">
+        <v>0.5</v>
+      </c>
+      <c r="AI150" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
+      </c>
+      <c r="AJ150" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK150">
+        <v>0.08</v>
+      </c>
+      <c r="AL150">
+        <v>0.2</v>
+      </c>
+      <c r="AM150" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0.6</v>
+      </c>
+      <c r="AO150" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP150">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ150" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR150">
+        <v>0.08</v>
+      </c>
+      <c r="AS150" s="7">
+        <f>AP150/(INDEX('PAdj Adjuster'!D:D, MATCH(C150, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>1.4012738853503188</v>
+      </c>
+      <c r="AT150" s="7">
+        <f>AQ150/(INDEX('PAdj Adjuster'!D:D, MATCH(C150, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV150">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX150" s="7" t="e">
+      <c r="AW150">
+        <v>0.7</v>
+      </c>
+      <c r="AX150" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AY150" s="8">
+        <v>0.7</v>
       </c>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>134</v>
       </c>
       <c r="B151" t="s">
         <v>253</v>
       </c>
+      <c r="C151" t="s">
+        <v>269</v>
+      </c>
       <c r="D151" s="9">
         <v>1080</v>
       </c>
@@ -21466,62 +23511,154 @@
       <c r="I151" s="2">
         <v>2.92</v>
       </c>
-      <c r="J151" s="2" t="e">
+      <c r="J151" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>4.7868852459016393</v>
+      </c>
+      <c r="K151" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="L151" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="M151" s="2">
+        <v>1.46</v>
       </c>
       <c r="N151" s="2">
         <f t="shared" si="35"/>
+        <v>-0.34000000000000008</v>
+      </c>
+      <c r="O151" s="2">
+        <v>0</v>
+      </c>
+      <c r="P151" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="2">
         <v>0</v>
       </c>
       <c r="R151" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U151" s="2" t="e">
+      <c r="S151" s="10">
+        <v>0</v>
+      </c>
+      <c r="T151" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="U151" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>12.984054669703873</v>
+      </c>
+      <c r="V151" s="10">
+        <v>0.878</v>
+      </c>
+      <c r="W151" s="7">
+        <v>0</v>
+      </c>
+      <c r="X151" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="7">
+        <v>0</v>
       </c>
       <c r="Z151" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC151" s="2" t="e">
+      <c r="AA151" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="AC151" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>3.2</v>
+      </c>
+      <c r="AD151" s="10">
+        <v>0.5</v>
       </c>
       <c r="AE151">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF151" s="2" t="e">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AF151" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG151" s="8" t="e">
+        <v>0.20585048754062829</v>
+      </c>
+      <c r="AG151" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI151" s="2" t="e">
+        <v>0.97157894736842132</v>
+      </c>
+      <c r="AH151">
+        <v>0.4</v>
+      </c>
+      <c r="AI151" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.56338028169014087</v>
+      </c>
+      <c r="AJ151" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>0.2</v>
+      </c>
+      <c r="AM151" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>0.4</v>
+      </c>
+      <c r="AO151" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP151">
+        <v>0.9</v>
+      </c>
+      <c r="AQ151" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR151">
+        <v>0</v>
+      </c>
+      <c r="AS151" s="7">
+        <f>AP151/(INDEX('PAdj Adjuster'!D:D, MATCH(C151, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.50467289719626174</v>
+      </c>
+      <c r="AT151" s="7">
+        <f>AQ151/(INDEX('PAdj Adjuster'!D:D, MATCH(C151, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV151">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX151" s="7" t="e">
+      <c r="AW151">
+        <v>0.6</v>
+      </c>
+      <c r="AX151" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="AY151" s="8">
+        <v>0.78</v>
       </c>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>176</v>
       </c>
       <c r="B152" t="s">
         <v>253</v>
       </c>
+      <c r="C152" t="s">
+        <v>271</v>
+      </c>
       <c r="D152" s="9">
         <v>900</v>
       </c>
@@ -21538,64 +23675,156 @@
         <v>0</v>
       </c>
       <c r="I152" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J152" s="2" t="e">
+        <v>3.7</v>
+      </c>
+      <c r="J152" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>4.625</v>
+      </c>
+      <c r="K152" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="L152" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M152" s="2">
+        <v>1.4</v>
       </c>
       <c r="N152" s="2">
         <f t="shared" si="35"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="O152" s="2">
+        <v>0</v>
+      </c>
+      <c r="P152" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="2">
         <v>0</v>
       </c>
       <c r="R152" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U152" s="2" t="e">
+      <c r="S152" s="10">
+        <v>0</v>
+      </c>
+      <c r="T152" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="U152" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>25.029377203290249</v>
+      </c>
+      <c r="V152" s="10">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="W152" s="7">
+        <v>0</v>
+      </c>
+      <c r="X152" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y152" s="7">
+        <v>0</v>
       </c>
       <c r="Z152" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC152" s="2" t="e">
+      <c r="AA152" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB152" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AC152" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AD152" s="10">
+        <v>0.46800000000000003</v>
       </c>
       <c r="AE152">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF152" s="2" t="e">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="AF152" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG152" s="8" t="e">
+        <v>0.58148148148148138</v>
+      </c>
+      <c r="AG152" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI152" s="2" t="e">
+        <v>0.51592356687898089</v>
+      </c>
+      <c r="AH152">
+        <v>0.9</v>
+      </c>
+      <c r="AI152" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.9</v>
+      </c>
+      <c r="AJ152" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK152">
+        <v>0.09</v>
+      </c>
+      <c r="AL152">
+        <v>0.3</v>
+      </c>
+      <c r="AM152" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN152">
+        <v>0.9</v>
+      </c>
+      <c r="AO152" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP152">
+        <v>1.2</v>
+      </c>
+      <c r="AQ152" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="AR152">
+        <v>0.2</v>
+      </c>
+      <c r="AS152" s="7">
+        <f>AP152/(INDEX('PAdj Adjuster'!D:D, MATCH(C152, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.8</v>
+      </c>
+      <c r="AT152" s="7">
+        <f>AQ152/(INDEX('PAdj Adjuster'!D:D, MATCH(C152, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.06</v>
       </c>
       <c r="AV152">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX152" s="7" t="e">
+      <c r="AW152">
+        <v>1.2</v>
+      </c>
+      <c r="AX152" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AY152" s="8">
+        <v>0.81</v>
       </c>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>225</v>
       </c>
       <c r="B153" t="s">
         <v>253</v>
       </c>
+      <c r="C153" t="s">
+        <v>273</v>
+      </c>
       <c r="D153" s="9">
         <v>630</v>
       </c>
@@ -21614,56 +23843,145 @@
       <c r="I153" s="2">
         <v>6.57</v>
       </c>
-      <c r="J153" s="2" t="e">
+      <c r="J153" s="2">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>8.4230769230769234</v>
+      </c>
+      <c r="K153" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="L153" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M153" s="2">
+        <v>2.5</v>
       </c>
       <c r="N153" s="2">
         <f t="shared" si="35"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="O153" s="2">
+        <v>0</v>
+      </c>
+      <c r="P153" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="2">
         <v>0</v>
       </c>
       <c r="R153" s="2" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U153" s="2" t="e">
+      <c r="S153" s="10">
+        <v>0</v>
+      </c>
+      <c r="T153" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="U153" s="2">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>33.451536643026003</v>
+      </c>
+      <c r="V153" s="10">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="W153" s="7">
+        <v>0</v>
+      </c>
+      <c r="X153" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y153" s="7">
+        <v>0</v>
       </c>
       <c r="Z153" s="2" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC153" s="2" t="e">
+      <c r="AA153" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB153" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AC153" s="2">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>12.888198757763975</v>
+      </c>
+      <c r="AD153" s="10">
+        <v>0.64400000000000002</v>
       </c>
       <c r="AE153">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF153" s="2" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AF153" s="2">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG153" s="8" t="e">
+        <v>0.6465116279069768</v>
+      </c>
+      <c r="AG153" s="8">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI153" s="2" t="e">
+        <v>0.77338129496402874</v>
+      </c>
+      <c r="AH153">
+        <v>0.4</v>
+      </c>
+      <c r="AI153" s="2">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
+      </c>
+      <c r="AJ153" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK153">
+        <v>0.1</v>
+      </c>
+      <c r="AL153">
+        <v>0.1</v>
+      </c>
+      <c r="AM153" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO153" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP153">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ153" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR153">
+        <v>0.1</v>
+      </c>
+      <c r="AS153" s="7">
+        <f>AP153/(INDEX('PAdj Adjuster'!D:D, MATCH(C153, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0.66937119675456402</v>
+      </c>
+      <c r="AT153" s="7">
+        <f>AQ153/(INDEX('PAdj Adjuster'!D:D, MATCH(C153, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>0</v>
       </c>
       <c r="AV153">
         <f t="shared" si="29"/>
         <v>-6.5</v>
       </c>
-      <c r="AX153" s="7" t="e">
+      <c r="AW153">
+        <v>0.9</v>
+      </c>
+      <c r="AX153" s="7">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1.0465116279069768</v>
+      </c>
+      <c r="AY153" s="8">
+        <v>0.86</v>
       </c>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -21712,6 +24030,14 @@
       <c r="AI154" s="2" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AS154" s="7" t="e">
+        <f>AP154/(INDEX('PAdj Adjuster'!D:D, MATCH(C154, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT154" s="7" t="e">
+        <f>AQ154/(INDEX('PAdj Adjuster'!D:D, MATCH(C154, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
       </c>
       <c r="AV154">
         <f t="shared" si="29"/>
@@ -21722,7 +24048,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>68</v>
       </c>
@@ -21771,6 +24097,14 @@
       <c r="AI155" s="2" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AS155" s="7" t="e">
+        <f>AP155/(INDEX('PAdj Adjuster'!D:D, MATCH(C155, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT155" s="7" t="e">
+        <f>AQ155/(INDEX('PAdj Adjuster'!D:D, MATCH(C155, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
       </c>
       <c r="AV155">
         <f t="shared" si="29"/>
@@ -21781,7 +24115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>78</v>
       </c>
@@ -21830,6 +24164,14 @@
       <c r="AI156" s="2" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AS156" s="7" t="e">
+        <f>AP156/(INDEX('PAdj Adjuster'!D:D, MATCH(C156, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT156" s="7" t="e">
+        <f>AQ156/(INDEX('PAdj Adjuster'!D:D, MATCH(C156, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
       </c>
       <c r="AV156">
         <f t="shared" si="29"/>
@@ -21840,7 +24182,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>100</v>
       </c>
@@ -21889,6 +24231,14 @@
       <c r="AI157" s="2" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AS157" s="7" t="e">
+        <f>AP157/(INDEX('PAdj Adjuster'!D:D, MATCH(C157, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT157" s="7" t="e">
+        <f>AQ157/(INDEX('PAdj Adjuster'!D:D, MATCH(C157, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
       </c>
       <c r="AV157">
         <f t="shared" si="29"/>
@@ -21899,7 +24249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -21948,6 +24298,14 @@
       <c r="AI158" s="2" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AS158" s="7" t="e">
+        <f>AP158/(INDEX('PAdj Adjuster'!D:D, MATCH(C158, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT158" s="7" t="e">
+        <f>AQ158/(INDEX('PAdj Adjuster'!D:D, MATCH(C158, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
       </c>
       <c r="AV158">
         <f t="shared" si="29"/>
@@ -21958,7 +24316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>103</v>
       </c>
@@ -22007,6 +24365,14 @@
       <c r="AI159" s="2" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AS159" s="7" t="e">
+        <f>AP159/(INDEX('PAdj Adjuster'!D:D, MATCH(C159, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT159" s="7" t="e">
+        <f>AQ159/(INDEX('PAdj Adjuster'!D:D, MATCH(C159, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
       </c>
       <c r="AV159">
         <f t="shared" si="29"/>
@@ -22017,7 +24383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>104</v>
       </c>
@@ -22066,6 +24432,14 @@
       <c r="AI160" s="2" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AS160" s="7" t="e">
+        <f>AP160/(INDEX('PAdj Adjuster'!D:D, MATCH(C160, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT160" s="7" t="e">
+        <f>AQ160/(INDEX('PAdj Adjuster'!D:D, MATCH(C160, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
       </c>
       <c r="AV160">
         <f t="shared" si="29"/>
@@ -22126,6 +24500,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS161" s="7" t="e">
+        <f>AP161/(INDEX('PAdj Adjuster'!D:D, MATCH(C161, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT161" s="7" t="e">
+        <f>AQ161/(INDEX('PAdj Adjuster'!D:D, MATCH(C161, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV161">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22185,6 +24567,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS162" s="7" t="e">
+        <f>AP162/(INDEX('PAdj Adjuster'!D:D, MATCH(C162, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT162" s="7" t="e">
+        <f>AQ162/(INDEX('PAdj Adjuster'!D:D, MATCH(C162, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV162">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22244,6 +24634,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS163" s="7" t="e">
+        <f>AP163/(INDEX('PAdj Adjuster'!D:D, MATCH(C163, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT163" s="7" t="e">
+        <f>AQ163/(INDEX('PAdj Adjuster'!D:D, MATCH(C163, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV163">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22303,6 +24701,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS164" s="7" t="e">
+        <f>AP164/(INDEX('PAdj Adjuster'!D:D, MATCH(C164, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT164" s="7" t="e">
+        <f>AQ164/(INDEX('PAdj Adjuster'!D:D, MATCH(C164, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV164">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22362,6 +24768,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS165" s="7" t="e">
+        <f>AP165/(INDEX('PAdj Adjuster'!D:D, MATCH(C165, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT165" s="7" t="e">
+        <f>AQ165/(INDEX('PAdj Adjuster'!D:D, MATCH(C165, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV165">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22421,6 +24835,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS166" s="7" t="e">
+        <f>AP166/(INDEX('PAdj Adjuster'!D:D, MATCH(C166, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT166" s="7" t="e">
+        <f>AQ166/(INDEX('PAdj Adjuster'!D:D, MATCH(C166, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV166">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22480,6 +24902,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS167" s="7" t="e">
+        <f>AP167/(INDEX('PAdj Adjuster'!D:D, MATCH(C167, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT167" s="7" t="e">
+        <f>AQ167/(INDEX('PAdj Adjuster'!D:D, MATCH(C167, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV167">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22539,6 +24969,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS168" s="7" t="e">
+        <f>AP168/(INDEX('PAdj Adjuster'!D:D, MATCH(C168, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT168" s="7" t="e">
+        <f>AQ168/(INDEX('PAdj Adjuster'!D:D, MATCH(C168, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV168">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22598,6 +25036,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS169" s="7" t="e">
+        <f>AP169/(INDEX('PAdj Adjuster'!D:D, MATCH(C169, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT169" s="7" t="e">
+        <f>AQ169/(INDEX('PAdj Adjuster'!D:D, MATCH(C169, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV169">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22657,6 +25103,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS170" s="7" t="e">
+        <f>AP170/(INDEX('PAdj Adjuster'!D:D, MATCH(C170, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT170" s="7" t="e">
+        <f>AQ170/(INDEX('PAdj Adjuster'!D:D, MATCH(C170, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV170">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22716,6 +25170,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS171" s="7" t="e">
+        <f>AP171/(INDEX('PAdj Adjuster'!D:D, MATCH(C171, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT171" s="7" t="e">
+        <f>AQ171/(INDEX('PAdj Adjuster'!D:D, MATCH(C171, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV171">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22775,6 +25237,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS172" s="7" t="e">
+        <f>AP172/(INDEX('PAdj Adjuster'!D:D, MATCH(C172, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT172" s="7" t="e">
+        <f>AQ172/(INDEX('PAdj Adjuster'!D:D, MATCH(C172, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV172">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22834,6 +25304,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS173" s="7" t="e">
+        <f>AP173/(INDEX('PAdj Adjuster'!D:D, MATCH(C173, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT173" s="7" t="e">
+        <f>AQ173/(INDEX('PAdj Adjuster'!D:D, MATCH(C173, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV173">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22893,6 +25371,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS174" s="7" t="e">
+        <f>AP174/(INDEX('PAdj Adjuster'!D:D, MATCH(C174, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT174" s="7" t="e">
+        <f>AQ174/(INDEX('PAdj Adjuster'!D:D, MATCH(C174, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV174">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -22952,6 +25438,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS175" s="7" t="e">
+        <f>AP175/(INDEX('PAdj Adjuster'!D:D, MATCH(C175, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT175" s="7" t="e">
+        <f>AQ175/(INDEX('PAdj Adjuster'!D:D, MATCH(C175, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV175">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23011,6 +25505,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS176" s="7" t="e">
+        <f>AP176/(INDEX('PAdj Adjuster'!D:D, MATCH(C176, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT176" s="7" t="e">
+        <f>AQ176/(INDEX('PAdj Adjuster'!D:D, MATCH(C176, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV176">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23070,6 +25572,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS177" s="7" t="e">
+        <f>AP177/(INDEX('PAdj Adjuster'!D:D, MATCH(C177, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT177" s="7" t="e">
+        <f>AQ177/(INDEX('PAdj Adjuster'!D:D, MATCH(C177, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV177">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23129,6 +25639,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS178" s="7" t="e">
+        <f>AP178/(INDEX('PAdj Adjuster'!D:D, MATCH(C178, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT178" s="7" t="e">
+        <f>AQ178/(INDEX('PAdj Adjuster'!D:D, MATCH(C178, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV178">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23188,6 +25706,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS179" s="7" t="e">
+        <f>AP179/(INDEX('PAdj Adjuster'!D:D, MATCH(C179, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT179" s="7" t="e">
+        <f>AQ179/(INDEX('PAdj Adjuster'!D:D, MATCH(C179, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV179">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23247,6 +25773,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS180" s="7" t="e">
+        <f>AP180/(INDEX('PAdj Adjuster'!D:D, MATCH(C180, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT180" s="7" t="e">
+        <f>AQ180/(INDEX('PAdj Adjuster'!D:D, MATCH(C180, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV180">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23306,6 +25840,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS181" s="7" t="e">
+        <f>AP181/(INDEX('PAdj Adjuster'!D:D, MATCH(C181, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT181" s="7" t="e">
+        <f>AQ181/(INDEX('PAdj Adjuster'!D:D, MATCH(C181, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV181">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23365,6 +25907,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS182" s="7" t="e">
+        <f>AP182/(INDEX('PAdj Adjuster'!D:D, MATCH(C182, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT182" s="7" t="e">
+        <f>AQ182/(INDEX('PAdj Adjuster'!D:D, MATCH(C182, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV182">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23424,6 +25974,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS183" s="7" t="e">
+        <f>AP183/(INDEX('PAdj Adjuster'!D:D, MATCH(C183, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT183" s="7" t="e">
+        <f>AQ183/(INDEX('PAdj Adjuster'!D:D, MATCH(C183, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV183">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23483,6 +26041,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS184" s="7" t="e">
+        <f>AP184/(INDEX('PAdj Adjuster'!D:D, MATCH(C184, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT184" s="7" t="e">
+        <f>AQ184/(INDEX('PAdj Adjuster'!D:D, MATCH(C184, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV184">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23542,6 +26108,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS185" s="7" t="e">
+        <f>AP185/(INDEX('PAdj Adjuster'!D:D, MATCH(C185, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT185" s="7" t="e">
+        <f>AQ185/(INDEX('PAdj Adjuster'!D:D, MATCH(C185, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV185">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23601,6 +26175,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS186" s="7" t="e">
+        <f>AP186/(INDEX('PAdj Adjuster'!D:D, MATCH(C186, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT186" s="7" t="e">
+        <f>AQ186/(INDEX('PAdj Adjuster'!D:D, MATCH(C186, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV186">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23660,6 +26242,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS187" s="7" t="e">
+        <f>AP187/(INDEX('PAdj Adjuster'!D:D, MATCH(C187, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT187" s="7" t="e">
+        <f>AQ187/(INDEX('PAdj Adjuster'!D:D, MATCH(C187, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV187">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23719,6 +26309,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS188" s="7" t="e">
+        <f>AP188/(INDEX('PAdj Adjuster'!D:D, MATCH(C188, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT188" s="7" t="e">
+        <f>AQ188/(INDEX('PAdj Adjuster'!D:D, MATCH(C188, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV188">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23778,6 +26376,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS189" s="7" t="e">
+        <f>AP189/(INDEX('PAdj Adjuster'!D:D, MATCH(C189, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT189" s="7" t="e">
+        <f>AQ189/(INDEX('PAdj Adjuster'!D:D, MATCH(C189, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV189">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23837,6 +26443,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS190" s="7" t="e">
+        <f>AP190/(INDEX('PAdj Adjuster'!D:D, MATCH(C190, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT190" s="7" t="e">
+        <f>AQ190/(INDEX('PAdj Adjuster'!D:D, MATCH(C190, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV190">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23896,6 +26510,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS191" s="7" t="e">
+        <f>AP191/(INDEX('PAdj Adjuster'!D:D, MATCH(C191, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT191" s="7" t="e">
+        <f>AQ191/(INDEX('PAdj Adjuster'!D:D, MATCH(C191, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV191">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -23955,6 +26577,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS192" s="7" t="e">
+        <f>AP192/(INDEX('PAdj Adjuster'!D:D, MATCH(C192, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT192" s="7" t="e">
+        <f>AQ192/(INDEX('PAdj Adjuster'!D:D, MATCH(C192, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV192">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -24014,6 +26644,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS193" s="7" t="e">
+        <f>AP193/(INDEX('PAdj Adjuster'!D:D, MATCH(C193, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT193" s="7" t="e">
+        <f>AQ193/(INDEX('PAdj Adjuster'!D:D, MATCH(C193, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV193">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -24073,6 +26711,14 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS194" s="7" t="e">
+        <f>AP194/(INDEX('PAdj Adjuster'!D:D, MATCH(C194, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT194" s="7" t="e">
+        <f>AQ194/(INDEX('PAdj Adjuster'!D:D, MATCH(C194, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV194">
         <f t="shared" si="29"/>
         <v>-6.5</v>
@@ -24132,6 +26778,14 @@
         <f t="shared" ref="AI195:AI207" si="40">AH195/AJ195</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS195" s="7" t="e">
+        <f>AP195/(INDEX('PAdj Adjuster'!D:D, MATCH(C195, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT195" s="7" t="e">
+        <f>AQ195/(INDEX('PAdj Adjuster'!D:D, MATCH(C195, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV195">
         <f t="shared" ref="AV195:AV207" si="41">AU195-6.5</f>
         <v>-6.5</v>
@@ -24191,6 +26845,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS196" s="7" t="e">
+        <f>AP196/(INDEX('PAdj Adjuster'!D:D, MATCH(C196, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT196" s="7" t="e">
+        <f>AQ196/(INDEX('PAdj Adjuster'!D:D, MATCH(C196, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV196">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24250,6 +26912,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS197" s="7" t="e">
+        <f>AP197/(INDEX('PAdj Adjuster'!D:D, MATCH(C197, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT197" s="7" t="e">
+        <f>AQ197/(INDEX('PAdj Adjuster'!D:D, MATCH(C197, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV197">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24309,6 +26979,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS198" s="7" t="e">
+        <f>AP198/(INDEX('PAdj Adjuster'!D:D, MATCH(C198, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT198" s="7" t="e">
+        <f>AQ198/(INDEX('PAdj Adjuster'!D:D, MATCH(C198, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV198">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24368,6 +27046,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS199" s="7" t="e">
+        <f>AP199/(INDEX('PAdj Adjuster'!D:D, MATCH(C199, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT199" s="7" t="e">
+        <f>AQ199/(INDEX('PAdj Adjuster'!D:D, MATCH(C199, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV199">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24427,6 +27113,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS200" s="7" t="e">
+        <f>AP200/(INDEX('PAdj Adjuster'!D:D, MATCH(C200, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT200" s="7" t="e">
+        <f>AQ200/(INDEX('PAdj Adjuster'!D:D, MATCH(C200, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV200">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24486,6 +27180,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS201" s="7" t="e">
+        <f>AP201/(INDEX('PAdj Adjuster'!D:D, MATCH(C201, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT201" s="7" t="e">
+        <f>AQ201/(INDEX('PAdj Adjuster'!D:D, MATCH(C201, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV201">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24545,6 +27247,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS202" s="7" t="e">
+        <f>AP202/(INDEX('PAdj Adjuster'!D:D, MATCH(C202, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT202" s="7" t="e">
+        <f>AQ202/(INDEX('PAdj Adjuster'!D:D, MATCH(C202, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV202">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24604,6 +27314,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS203" s="7" t="e">
+        <f>AP203/(INDEX('PAdj Adjuster'!D:D, MATCH(C203, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT203" s="7" t="e">
+        <f>AQ203/(INDEX('PAdj Adjuster'!D:D, MATCH(C203, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV203">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24663,6 +27381,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS204" s="7" t="e">
+        <f>AP204/(INDEX('PAdj Adjuster'!D:D, MATCH(C204, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT204" s="7" t="e">
+        <f>AQ204/(INDEX('PAdj Adjuster'!D:D, MATCH(C204, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV204">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24722,6 +27448,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS205" s="7" t="e">
+        <f>AP205/(INDEX('PAdj Adjuster'!D:D, MATCH(C205, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT205" s="7" t="e">
+        <f>AQ205/(INDEX('PAdj Adjuster'!D:D, MATCH(C205, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV205">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24781,6 +27515,14 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AS206" s="7" t="e">
+        <f>AP206/(INDEX('PAdj Adjuster'!D:D, MATCH(C206, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT206" s="7" t="e">
+        <f>AQ206/(INDEX('PAdj Adjuster'!D:D, MATCH(C206, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
       <c r="AV206">
         <f t="shared" si="41"/>
         <v>-6.5</v>
@@ -24839,6 +27581,14 @@
       <c r="AI207" s="2" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AS207" s="7" t="e">
+        <f>AP207/(INDEX('PAdj Adjuster'!D:D, MATCH(C207, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT207" s="7" t="e">
+        <f>AQ207/(INDEX('PAdj Adjuster'!D:D, MATCH(C207, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>#N/A</v>
       </c>
       <c r="AV207">
         <f t="shared" si="41"/>
@@ -24858,21 +27608,381 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7568B-D87E-4400-83D9-4B52304726C6}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="15">
+        <v>55.600000000000009</v>
+      </c>
+      <c r="C2" s="16">
+        <f>B2*0.6</f>
+        <v>33.360000000000007</v>
+      </c>
+      <c r="D2" s="17">
+        <f>100-B2</f>
+        <v>44.399999999999991</v>
+      </c>
+      <c r="E2" s="16">
+        <f>D2*0.6</f>
+        <v>26.639999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="15">
+        <v>50.4</v>
+      </c>
+      <c r="C3" s="16">
+        <f t="shared" ref="C3:C17" si="0">B3*0.6</f>
+        <v>30.24</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:D17" si="1">100-B3</f>
+        <v>49.6</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" ref="E3:E17" si="2">D3*0.6</f>
+        <v>29.759999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="15">
+        <v>50.7</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" si="0"/>
+        <v>30.42</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="1"/>
+        <v>49.3</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="2"/>
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="15">
+        <v>49.5</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="1"/>
+        <v>50.5</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="2"/>
+        <v>30.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="15">
+        <v>49.3</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" si="0"/>
+        <v>29.58</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="1"/>
+        <v>50.7</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="2"/>
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="15">
+        <v>48.6</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="0"/>
+        <v>29.16</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>51.4</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="2"/>
+        <v>30.839999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="15">
+        <v>48.9</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>29.339999999999996</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>51.1</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="2"/>
+        <v>30.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="15">
+        <v>53.300000000000004</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="0"/>
+        <v>31.98</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="1"/>
+        <v>46.699999999999996</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="2"/>
+        <v>28.019999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="15">
+        <v>46.400000000000006</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="0"/>
+        <v>27.840000000000003</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="1"/>
+        <v>53.599999999999994</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="2"/>
+        <v>32.159999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="15">
+        <v>52.900000000000006</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="0"/>
+        <v>31.740000000000002</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="1"/>
+        <v>47.099999999999994</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="2"/>
+        <v>28.259999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="15">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="1"/>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="2"/>
+        <v>26.999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="15">
+        <v>50.7</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="0"/>
+        <v>30.42</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="1"/>
+        <v>49.3</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="2"/>
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="0"/>
+        <v>27.3</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="1"/>
+        <v>54.5</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
+        <v>32.699999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="15">
+        <v>46.5</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="1"/>
+        <v>53.5</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="15">
+        <v>49.4</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>29.639999999999997</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="1"/>
+        <v>50.6</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="15">
+        <v>47.4</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="0"/>
+        <v>28.439999999999998</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="1"/>
+        <v>52.6</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>31.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e7c35617-924a-4a13-8582-9856c8b54434" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e7c35617-924a-4a13-8582-9856c8b54434" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25032,14 +28142,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C2D1EF-8402-48CB-92F6-54D6D7B3C154}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F4FCA79-C296-4582-BA57-224B636CC06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="e7c35617-924a-4a13-8582-9856c8b54434"/>
@@ -25051,6 +28153,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C2D1EF-8402-48CB-92F6-54D6D7B3C154}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/NPL NSW 2025 May Position Benchmarks.xlsx
+++ b/NPL NSW 2025 May Position Benchmarks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\PycharmProjects\PlayerDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D7BD0-6B0B-4A69-95C0-0C0F00FBB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CFFD31-1866-47DC-90A5-E521C0D849BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6835DBCD-265D-4EC1-9D29-D56A5BE0D899}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="287">
   <si>
     <t>Name</t>
   </si>
@@ -896,6 +896,9 @@
   <si>
     <t>Possession Time</t>
   </si>
+  <si>
+    <t>Daniel Solsky</t>
+  </si>
 </sst>
 </file>
 
@@ -11422,11 +11425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83F9DB4-77E7-497E-BF45-81AA4986C5BD}">
-  <dimension ref="A1:AY207"/>
+  <dimension ref="A1:AY208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX98" sqref="AX98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18217,53 +18220,158 @@
       <c r="D79" s="9">
         <v>1350</v>
       </c>
-      <c r="R79" s="2" t="e">
+      <c r="E79" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P79" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R79" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U79" s="2" t="e">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S79" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="T79" s="2">
+        <v>37</v>
+      </c>
+      <c r="U79" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z79" s="2" t="e">
+        <v>45.848822800495661</v>
+      </c>
+      <c r="V79" s="10">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="W79" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="X79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Z79" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC79" s="2" t="e">
+        <v>1.2</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AC79" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.8943089430894311</v>
+      </c>
+      <c r="AD79" s="10">
+        <v>0.49199999999999999</v>
       </c>
       <c r="AE79">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF79" s="2" t="e">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="AF79" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG79" s="8" t="e">
+        <v>15.33248081841432</v>
+      </c>
+      <c r="AG79" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI79" s="2" t="e">
+        <v>0.31958298582151795</v>
+      </c>
+      <c r="AH79">
+        <v>1.2</v>
+      </c>
+      <c r="AI79" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>2.6086956521739126</v>
+      </c>
+      <c r="AJ79" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="AK79">
+        <v>1.8</v>
+      </c>
+      <c r="AL79">
+        <v>0.6</v>
+      </c>
+      <c r="AM79">
+        <v>0.1</v>
+      </c>
+      <c r="AN79">
+        <v>1.7</v>
+      </c>
+      <c r="AO79">
+        <v>0.4</v>
+      </c>
+      <c r="AP79">
+        <v>1.8</v>
+      </c>
+      <c r="AQ79">
+        <v>0.4</v>
+      </c>
+      <c r="AR79">
+        <v>1.2</v>
       </c>
       <c r="AS79" s="7">
         <f>AP79/(INDEX('PAdj Adjuster'!E:E, MATCH(C79, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.7751479289940828</v>
       </c>
       <c r="AT79" s="7">
         <f>AQ79/(INDEX('PAdj Adjuster'!E:E, MATCH(C79, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.39447731755424065</v>
+      </c>
+      <c r="AU79">
+        <v>7.1</v>
       </c>
       <c r="AV79">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX79" s="7" t="e">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AW79">
+        <v>6.1</v>
+      </c>
+      <c r="AX79" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>17.941176470588232</v>
+      </c>
+      <c r="AY79" s="8">
+        <v>0.34</v>
       </c>
     </row>
     <row r="80" spans="1:51" x14ac:dyDescent="0.35">
@@ -18279,56 +18387,161 @@
       <c r="D80" s="9">
         <v>1350</v>
       </c>
-      <c r="R80" s="2" t="e">
+      <c r="E80" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="13">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R80" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U80" s="2" t="e">
+        <v>0.44943820224719105</v>
+      </c>
+      <c r="S80" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="T80" s="2">
+        <v>47.3</v>
+      </c>
+      <c r="U80" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z80" s="2" t="e">
+        <v>55.778301886792448</v>
+      </c>
+      <c r="V80" s="10">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="W80" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="X80" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="Y80" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Z80" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC80" s="2" t="e">
+        <v>0.56022408963585435</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="AC80" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.2863436123348011</v>
+      </c>
+      <c r="AD80" s="10">
+        <v>0.45400000000000001</v>
       </c>
       <c r="AE80">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF80" s="2" t="e">
+        <v>3.7</v>
+      </c>
+      <c r="AF80" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG80" s="8" t="e">
+        <v>12.159498207885305</v>
+      </c>
+      <c r="AG80" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI80" s="2" t="e">
+        <v>0.3042888725128961</v>
+      </c>
+      <c r="AH80">
+        <v>0.5</v>
+      </c>
+      <c r="AI80" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="AJ80" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="AK80">
+        <v>1.6</v>
+      </c>
+      <c r="AL80">
+        <v>0.4</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0.7</v>
+      </c>
+      <c r="AO80">
+        <v>0.2</v>
+      </c>
+      <c r="AP80">
+        <v>2</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>1.3</v>
       </c>
       <c r="AS80" s="7">
         <f>AP80/(INDEX('PAdj Adjuster'!E:E, MATCH(C80, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>2.1413276231263385</v>
       </c>
       <c r="AT80" s="7">
         <f>AQ80/(INDEX('PAdj Adjuster'!E:E, MATCH(C80, 'PAdj Adjuster'!A:A, 0))) * 30</f>
         <v>0</v>
       </c>
+      <c r="AU80">
+        <v>6.97</v>
+      </c>
       <c r="AV80">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX80" s="7" t="e">
+        <v>0.46999999999999975</v>
+      </c>
+      <c r="AW80">
+        <v>4.2</v>
+      </c>
+      <c r="AX80" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>13.548387096774194</v>
+      </c>
+      <c r="AY80" s="8">
+        <v>0.31</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -18341,56 +18554,161 @@
       <c r="D81" s="9">
         <v>1260</v>
       </c>
-      <c r="R81" s="2" t="e">
+      <c r="E81" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="13">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="R81" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U81" s="2" t="e">
+        <v>2.9824561403508776</v>
+      </c>
+      <c r="S81" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T81" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="U81" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z81" s="2" t="e">
+        <v>47.266099635479954</v>
+      </c>
+      <c r="V81" s="10">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="W81" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="X81" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="Y81" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Z81" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC81" s="2" t="e">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AC81" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.4761904761904763</v>
+      </c>
+      <c r="AD81" s="10">
+        <v>0.42</v>
       </c>
       <c r="AE81">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF81" s="2" t="e">
+        <v>7.3</v>
+      </c>
+      <c r="AF81" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG81" s="8" t="e">
+        <v>17.936585365853656</v>
+      </c>
+      <c r="AG81" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI81" s="2" t="e">
+        <v>0.4069893935273321</v>
+      </c>
+      <c r="AH81">
+        <v>0.3</v>
+      </c>
+      <c r="AI81" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.6</v>
+      </c>
+      <c r="AJ81" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AK81">
+        <v>0.7</v>
+      </c>
+      <c r="AL81">
+        <v>1.6</v>
+      </c>
+      <c r="AM81">
+        <v>0.06</v>
+      </c>
+      <c r="AN81">
+        <v>0.9</v>
+      </c>
+      <c r="AO81">
+        <v>0.3</v>
+      </c>
+      <c r="AP81">
+        <v>1.7</v>
+      </c>
+      <c r="AQ81">
+        <v>0.06</v>
+      </c>
+      <c r="AR81">
+        <v>0.8</v>
       </c>
       <c r="AS81" s="7">
         <f>AP81/(INDEX('PAdj Adjuster'!E:E, MATCH(C81, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.7241379310344827</v>
       </c>
       <c r="AT81" s="7">
         <f>AQ81/(INDEX('PAdj Adjuster'!E:E, MATCH(C81, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>6.0851926977687626E-2</v>
+      </c>
+      <c r="AU81">
+        <v>6.92</v>
       </c>
       <c r="AV81">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX81" s="7" t="e">
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="AW81">
+        <v>7.6</v>
+      </c>
+      <c r="AX81" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>18.536585365853657</v>
+      </c>
+      <c r="AY81" s="8">
+        <v>0.41</v>
       </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -18403,56 +18721,161 @@
       <c r="D82" s="9">
         <v>1170</v>
       </c>
-      <c r="R82" s="2" t="e">
+      <c r="E82" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="13">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R82" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U82" s="2" t="e">
+        <v>0.36144578313253012</v>
+      </c>
+      <c r="S82" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="T82" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U82" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>59.644970414201183</v>
+      </c>
+      <c r="V82" s="10">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="W82" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X82" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="7">
+        <v>0</v>
       </c>
       <c r="Z82" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC82" s="2" t="e">
+      <c r="AA82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AC82" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>8.4788029925187018</v>
+      </c>
+      <c r="AD82" s="10">
+        <v>0.40100000000000002</v>
       </c>
       <c r="AE82">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF82" s="2" t="e">
+        <v>3.1</v>
+      </c>
+      <c r="AF82" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG82" s="8" t="e">
+        <v>12.230769230769232</v>
+      </c>
+      <c r="AG82" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI82" s="2" t="e">
+        <v>0.25345911949685535</v>
+      </c>
+      <c r="AH82">
+        <v>0.6</v>
+      </c>
+      <c r="AI82" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
+      </c>
+      <c r="AJ82" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AK82">
+        <v>0.9</v>
+      </c>
+      <c r="AL82">
+        <v>0.1</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>2</v>
+      </c>
+      <c r="AO82">
+        <v>0.06</v>
+      </c>
+      <c r="AP82">
+        <v>1.8</v>
+      </c>
+      <c r="AQ82">
+        <v>0.3</v>
+      </c>
+      <c r="AR82">
+        <v>1.7</v>
       </c>
       <c r="AS82" s="7">
         <f>AP82/(INDEX('PAdj Adjuster'!E:E, MATCH(C82, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.8255578093306291</v>
       </c>
       <c r="AT82" s="7">
         <f>AQ82/(INDEX('PAdj Adjuster'!E:E, MATCH(C82, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.3042596348884381</v>
+      </c>
+      <c r="AU82">
+        <v>6.53</v>
       </c>
       <c r="AV82">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX82" s="7" t="e">
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="AW82">
+        <v>3.7</v>
+      </c>
+      <c r="AX82" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>14.230769230769232</v>
+      </c>
+      <c r="AY82" s="8">
+        <v>0.26</v>
       </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -18465,56 +18888,161 @@
       <c r="D83" s="9">
         <v>1138</v>
       </c>
-      <c r="R83" s="2" t="e">
+      <c r="E83" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="13">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R83" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U83" s="2" t="e">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="S83" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="T83" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="U83" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z83" s="2" t="e">
+        <v>37.5</v>
+      </c>
+      <c r="V83" s="10">
+        <v>0.872</v>
+      </c>
+      <c r="W83" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="X83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Z83" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC83" s="2" t="e">
+        <v>0.45045045045045046</v>
+      </c>
+      <c r="AA83" s="10">
+        <v>0.222</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC83" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>3.9711191335740073</v>
+      </c>
+      <c r="AD83" s="10">
+        <v>0.55400000000000005</v>
       </c>
       <c r="AE83">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF83" s="2" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="AF83" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG83" s="8" t="e">
+        <v>8.8461538461538467</v>
+      </c>
+      <c r="AG83" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI83" s="2" t="e">
+        <v>0.28260869565217389</v>
+      </c>
+      <c r="AH83">
+        <v>0.6</v>
+      </c>
+      <c r="AI83" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="AJ83" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="AK83">
+        <v>0.8</v>
+      </c>
+      <c r="AL83">
+        <v>0.4</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0.7</v>
+      </c>
+      <c r="AO83">
+        <v>0.2</v>
+      </c>
+      <c r="AP83">
+        <v>1.4</v>
+      </c>
+      <c r="AQ83">
+        <v>0.4</v>
+      </c>
+      <c r="AR83">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS83" s="7">
         <f>AP83/(INDEX('PAdj Adjuster'!E:E, MATCH(C83, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.3307984790874525</v>
       </c>
       <c r="AT83" s="7">
         <f>AQ83/(INDEX('PAdj Adjuster'!E:E, MATCH(C83, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.38022813688212931</v>
+      </c>
+      <c r="AU83">
+        <v>6.85</v>
       </c>
       <c r="AV83">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX83" s="7" t="e">
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="AW83">
+        <v>3.1</v>
+      </c>
+      <c r="AX83" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
+      </c>
+      <c r="AY83" s="8">
+        <v>0.31</v>
       </c>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -18527,56 +19055,161 @@
       <c r="D84" s="9">
         <v>1123</v>
       </c>
-      <c r="R84" s="2" t="e">
+      <c r="E84" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="13">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R84" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U84" s="2" t="e">
+        <v>1.25</v>
+      </c>
+      <c r="S84" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="T84" s="2">
+        <v>31</v>
+      </c>
+      <c r="U84" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z84" s="2" t="e">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="V84" s="10">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="W84" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X84" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Z84" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC84" s="2" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="AA84" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="AC84" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>3.8543897216274088</v>
+      </c>
+      <c r="AD84" s="10">
+        <v>0.46700000000000003</v>
       </c>
       <c r="AE84">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF84" s="2" t="e">
+        <v>7.9</v>
+      </c>
+      <c r="AF84" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG84" s="8" t="e">
+        <v>20.067972810875652</v>
+      </c>
+      <c r="AG84" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI84" s="2" t="e">
+        <v>0.39366208408049408</v>
+      </c>
+      <c r="AH84">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.639344262295082</v>
+      </c>
+      <c r="AJ84" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="AK84">
+        <v>2.5</v>
+      </c>
+      <c r="AL84">
+        <v>2.4</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1.2</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>1.8</v>
+      </c>
+      <c r="AQ84">
+        <v>0.6</v>
+      </c>
+      <c r="AR84">
+        <v>1.8</v>
       </c>
       <c r="AS84" s="7">
         <f>AP84/(INDEX('PAdj Adjuster'!E:E, MATCH(C84, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.7509727626459146</v>
       </c>
       <c r="AT84" s="7">
         <f>AQ84/(INDEX('PAdj Adjuster'!E:E, MATCH(C84, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.58365758754863817</v>
+      </c>
+      <c r="AU84">
+        <v>6.66</v>
       </c>
       <c r="AV84">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX84" s="7" t="e">
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="AW84">
+        <v>8.9</v>
+      </c>
+      <c r="AX84" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>21.707317073170735</v>
+      </c>
+      <c r="AY84" s="8">
+        <v>0.41</v>
       </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -18589,56 +19222,161 @@
       <c r="D85" s="9">
         <v>1067</v>
       </c>
-      <c r="R85" s="2" t="e">
+      <c r="E85" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G85" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="13">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="P85" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R85" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U85" s="2" t="e">
+        <v>1.4035087719298247</v>
+      </c>
+      <c r="S85" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T85" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="U85" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z85" s="2" t="e">
+        <v>45.3083109919571</v>
+      </c>
+      <c r="V85" s="10">
+        <v>0.746</v>
+      </c>
+      <c r="W85" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="X85" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y85" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Z85" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC85" s="2" t="e">
+        <v>1.1235955056179774</v>
+      </c>
+      <c r="AA85" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC85" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>8.3682008368200833</v>
+      </c>
+      <c r="AD85" s="10">
+        <v>0.47799999999999998</v>
       </c>
       <c r="AE85">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF85" s="2" t="e">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="AF85" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG85" s="8" t="e">
+        <v>16.051282051282051</v>
+      </c>
+      <c r="AG85" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI85" s="2" t="e">
+        <v>0.35511182108626194</v>
+      </c>
+      <c r="AH85">
+        <v>1.4</v>
+      </c>
+      <c r="AI85" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>2.1538461538461537</v>
+      </c>
+      <c r="AJ85" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="AK85">
+        <v>1.3</v>
+      </c>
+      <c r="AL85">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM85">
+        <v>0.06</v>
+      </c>
+      <c r="AN85">
+        <v>0.9</v>
+      </c>
+      <c r="AO85">
+        <v>0.5</v>
+      </c>
+      <c r="AP85">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1</v>
       </c>
       <c r="AS85" s="7">
         <f>AP85/(INDEX('PAdj Adjuster'!E:E, MATCH(C85, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>2.2504892367906066</v>
       </c>
       <c r="AT85" s="7">
         <f>AQ85/(INDEX('PAdj Adjuster'!E:E, MATCH(C85, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.97847358121330719</v>
+      </c>
+      <c r="AU85">
+        <v>7.26</v>
       </c>
       <c r="AV85">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX85" s="7" t="e">
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="AW85">
+        <v>7.1</v>
+      </c>
+      <c r="AX85" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>18.205128205128204</v>
+      </c>
+      <c r="AY85" s="8">
+        <v>0.39</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -18651,56 +19389,161 @@
       <c r="D86" s="9">
         <v>1022</v>
       </c>
-      <c r="R86" s="2" t="e">
+      <c r="E86" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="13">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R86" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U86" s="2" t="e">
+        <v>0.70422535211267612</v>
+      </c>
+      <c r="S86" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="T86" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="U86" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>36.732026143790854</v>
+      </c>
+      <c r="V86" s="10">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="W86" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X86" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="7">
+        <v>0</v>
       </c>
       <c r="Z86" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC86" s="2" t="e">
+      <c r="AA86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AC86" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
+      </c>
+      <c r="AD86" s="10">
+        <v>0.35</v>
       </c>
       <c r="AE86">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF86" s="2" t="e">
+        <v>5.4</v>
+      </c>
+      <c r="AF86" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG86" s="8" t="e">
+        <v>14.813596491228068</v>
+      </c>
+      <c r="AG86" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI86" s="2" t="e">
+        <v>0.36452997779422658</v>
+      </c>
+      <c r="AH86">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI86" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>2.291666666666667</v>
+      </c>
+      <c r="AJ86" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="AK86">
+        <v>1.9</v>
+      </c>
+      <c r="AL86">
+        <v>0.9</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO86">
+        <v>0.3</v>
+      </c>
+      <c r="AP86">
+        <v>2</v>
+      </c>
+      <c r="AQ86">
+        <v>0.5</v>
+      </c>
+      <c r="AR86">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS86" s="7">
         <f>AP86/(INDEX('PAdj Adjuster'!E:E, MATCH(C86, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.9801980198019804</v>
       </c>
       <c r="AT86" s="7">
         <f>AQ86/(INDEX('PAdj Adjuster'!E:E, MATCH(C86, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.4950495049504951</v>
+      </c>
+      <c r="AU86">
+        <v>6.62</v>
       </c>
       <c r="AV86">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX86" s="7" t="e">
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="AW86">
+        <v>6.5</v>
+      </c>
+      <c r="AX86" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>17.105263157894736</v>
+      </c>
+      <c r="AY86" s="8">
+        <v>0.38</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -18713,56 +19556,161 @@
       <c r="D87" s="9">
         <v>990</v>
       </c>
-      <c r="R87" s="2" t="e">
+      <c r="E87" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="13">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R87" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U87" s="2" t="e">
+        <v>0.36144578313253012</v>
+      </c>
+      <c r="S87" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="T87" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="U87" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z87" s="2" t="e">
+        <v>47.309417040358746</v>
+      </c>
+      <c r="V87" s="10">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="W87" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="X87" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Z87" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC87" s="2" t="e">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AA87" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AC87" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>1.7199017199017199</v>
+      </c>
+      <c r="AD87" s="10">
+        <v>0.40699999999999997</v>
       </c>
       <c r="AE87">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF87" s="2" t="e">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AF87" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG87" s="8" t="e">
+        <v>12.473684210526315</v>
+      </c>
+      <c r="AG87" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI87" s="2" t="e">
+        <v>0.36877637130801688</v>
+      </c>
+      <c r="AH87">
+        <v>0.9</v>
+      </c>
+      <c r="AI87" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
+      </c>
+      <c r="AJ87" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AK87">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AL87">
+        <v>0.6</v>
+      </c>
+      <c r="AM87">
+        <v>0.06</v>
+      </c>
+      <c r="AN87">
+        <v>0.8</v>
+      </c>
+      <c r="AO87">
+        <v>0.3</v>
+      </c>
+      <c r="AP87">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ87">
+        <v>0.4</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
       </c>
       <c r="AS87" s="7">
         <f>AP87/(INDEX('PAdj Adjuster'!E:E, MATCH(C87, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>2.2312373225152133</v>
       </c>
       <c r="AT87" s="7">
         <f>AQ87/(INDEX('PAdj Adjuster'!E:E, MATCH(C87, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.40567951318458423</v>
+      </c>
+      <c r="AU87">
+        <v>6.79</v>
       </c>
       <c r="AV87">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX87" s="7" t="e">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="AW87">
+        <v>5.5</v>
+      </c>
+      <c r="AX87" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>14.473684210526315</v>
+      </c>
+      <c r="AY87" s="8">
+        <v>0.38</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -18775,56 +19723,160 @@
       <c r="D88" s="9">
         <v>956</v>
       </c>
-      <c r="R88" s="2" t="e">
+      <c r="E88" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G88" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+      <c r="K88" s="13">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P88" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R88" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U88" s="2" t="e">
+        <v>0.29850746268656714</v>
+      </c>
+      <c r="S88" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="T88" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="U88" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z88" s="2" t="e">
+        <v>45.323741007194243</v>
+      </c>
+      <c r="V88" s="10">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="W88" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="X88" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Z88" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC88" s="2" t="e">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AA88" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC88" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>4.9019607843137258</v>
+      </c>
+      <c r="AD88" s="10">
+        <v>0.61199999999999999</v>
       </c>
       <c r="AE88">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF88" s="2" t="e">
+        <v>1.4</v>
+      </c>
+      <c r="AF88" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG88" s="8" t="e">
+        <v>5.0261233019853711</v>
+      </c>
+      <c r="AG88" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI88" s="2" t="e">
+        <v>0.27854469854469854</v>
+      </c>
+      <c r="AH88">
+        <v>0.6</v>
+      </c>
+      <c r="AI88" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AJ88" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AK88">
+        <v>0.3</v>
+      </c>
+      <c r="AL88">
+        <v>0.4</v>
+      </c>
+      <c r="AM88">
+        <v>0.1</v>
+      </c>
+      <c r="AN88">
+        <v>0.4</v>
+      </c>
+      <c r="AO88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>1.3</v>
       </c>
       <c r="AS88" s="7">
         <f>AP88/(INDEX('PAdj Adjuster'!E:E, MATCH(C88, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.9762845849802373</v>
       </c>
       <c r="AT88" s="7">
         <f>AQ88/(INDEX('PAdj Adjuster'!E:E, MATCH(C88, 'PAdj Adjuster'!A:A, 0))) * 30</f>
         <v>0</v>
       </c>
+      <c r="AU88">
+        <v>6.75</v>
+      </c>
       <c r="AV88">
-        <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX88" s="7" t="e">
+        <v>9</v>
+      </c>
+      <c r="AW88">
+        <v>2</v>
+      </c>
+      <c r="AX88" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>6.0606060606060606</v>
+      </c>
+      <c r="AY88" s="8">
+        <v>0.33</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -18837,56 +19889,161 @@
       <c r="D89" s="9">
         <v>900</v>
       </c>
-      <c r="R89" s="2" t="e">
+      <c r="E89" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="13">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R89" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U89" s="2" t="e">
+        <v>0.88607594936708856</v>
+      </c>
+      <c r="S89" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="T89" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="U89" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z89" s="2" t="e">
+        <v>43.682310469314075</v>
+      </c>
+      <c r="V89" s="10">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="W89" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="X89" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Y89" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z89" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC89" s="2" t="e">
+        <v>2.5462962962962967</v>
+      </c>
+      <c r="AA89" s="10">
+        <v>0.432</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AC89" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>4.778761061946903</v>
+      </c>
+      <c r="AD89" s="10">
+        <v>0.56499999999999995</v>
       </c>
       <c r="AE89">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="2" t="e">
+        <v>4.2</v>
+      </c>
+      <c r="AF89" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG89" s="8" t="e">
+        <v>9.269565217391305</v>
+      </c>
+      <c r="AG89" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI89" s="2" t="e">
+        <v>0.45309568480300189</v>
+      </c>
+      <c r="AH89">
+        <v>0.8</v>
+      </c>
+      <c r="AI89" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.6</v>
+      </c>
+      <c r="AJ89" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AK89">
+        <v>1.5</v>
+      </c>
+      <c r="AL89">
+        <v>0.3</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>0.3</v>
+      </c>
+      <c r="AP89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>1.2</v>
       </c>
       <c r="AS89" s="7">
         <f>AP89/(INDEX('PAdj Adjuster'!E:E, MATCH(C89, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.1088709677419357</v>
       </c>
       <c r="AT89" s="7">
         <f>AQ89/(INDEX('PAdj Adjuster'!E:E, MATCH(C89, 'PAdj Adjuster'!A:A, 0))) * 30</f>
         <v>0</v>
       </c>
+      <c r="AU89">
+        <v>6.76</v>
+      </c>
       <c r="AV89">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX89" s="7" t="e">
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="AY89" s="8">
+        <v>0.46</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -18899,56 +20056,161 @@
       <c r="D90" s="9">
         <v>867</v>
       </c>
-      <c r="R90" s="2" t="e">
+      <c r="E90" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="13">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="R90" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U90" s="2" t="e">
+        <v>1.8823529411764708</v>
+      </c>
+      <c r="S90" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="T90" s="2">
+        <v>46</v>
+      </c>
+      <c r="U90" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z90" s="2" t="e">
+        <v>55.421686746987952</v>
+      </c>
+      <c r="V90" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="W90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="X90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Z90" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC90" s="2" t="e">
+        <v>0.3003003003003003</v>
+      </c>
+      <c r="AA90" s="10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AC90" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.4054054054054061</v>
+      </c>
+      <c r="AD90" s="10">
+        <v>0.48099999999999998</v>
       </c>
       <c r="AE90">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF90" s="2" t="e">
+        <v>7.5</v>
+      </c>
+      <c r="AF90" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG90" s="8" t="e">
+        <v>16.330720418066445</v>
+      </c>
+      <c r="AG90" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI90" s="2" t="e">
+        <v>0.45925714285714281</v>
+      </c>
+      <c r="AH90">
+        <v>1</v>
+      </c>
+      <c r="AI90" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.7543859649122808</v>
+      </c>
+      <c r="AJ90" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AK90">
+        <v>1.7</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1.3</v>
+      </c>
+      <c r="AO90">
+        <v>0.3</v>
+      </c>
+      <c r="AP90">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ90">
+        <v>0.3</v>
+      </c>
+      <c r="AR90">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS90" s="7">
         <f>AP90/(INDEX('PAdj Adjuster'!E:E, MATCH(C90, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="AT90" s="7">
         <f>AQ90/(INDEX('PAdj Adjuster'!E:E, MATCH(C90, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AU90">
+        <v>6.89</v>
       </c>
       <c r="AV90">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX90" s="7" t="e">
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="AW90">
+        <v>8.5</v>
+      </c>
+      <c r="AX90" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>18.085106382978726</v>
+      </c>
+      <c r="AY90" s="8">
+        <v>0.47</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>195</v>
       </c>
@@ -18961,56 +20223,161 @@
       <c r="D91" s="9">
         <v>804</v>
       </c>
-      <c r="R91" s="2" t="e">
+      <c r="E91" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="13">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R91" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U91" s="2" t="e">
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="S91" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="T91" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="U91" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z91" s="2" t="e">
+        <v>42.612942612942611</v>
+      </c>
+      <c r="V91" s="10">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="W91" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="X91" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="Z91" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC91" s="2" t="e">
+        <v>0.08</v>
+      </c>
+      <c r="AA91" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.836575875486381</v>
+      </c>
+      <c r="AD91" s="10">
+        <v>0.51400000000000001</v>
       </c>
       <c r="AE91">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF91" s="2" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AF91" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG91" s="8" t="e">
+        <v>9</v>
+      </c>
+      <c r="AG91" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI91" s="2" t="e">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="AH91">
+        <v>0.4</v>
+      </c>
+      <c r="AI91" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AJ91" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AK91">
+        <v>0.7</v>
+      </c>
+      <c r="AL91">
+        <v>0.4</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0.4</v>
+      </c>
+      <c r="AO91">
+        <v>0.3</v>
+      </c>
+      <c r="AP91">
+        <v>1</v>
+      </c>
+      <c r="AQ91">
+        <v>0.4</v>
+      </c>
+      <c r="AR91">
+        <v>0.8</v>
       </c>
       <c r="AS91" s="7">
         <f>AP91/(INDEX('PAdj Adjuster'!E:E, MATCH(C91, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.1261261261261264</v>
       </c>
       <c r="AT91" s="7">
         <f>AQ91/(INDEX('PAdj Adjuster'!E:E, MATCH(C91, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.45045045045045062</v>
+      </c>
+      <c r="AU91">
+        <v>6.61</v>
       </c>
       <c r="AV91">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX91" s="7" t="e">
+        <v>0.11000000000000032</v>
+      </c>
+      <c r="AW91">
+        <v>3.2</v>
+      </c>
+      <c r="AX91" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
+      </c>
+      <c r="AY91" s="8">
+        <v>0.32</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>203</v>
       </c>
@@ -19023,56 +20390,161 @@
       <c r="D92" s="9">
         <v>760</v>
       </c>
-      <c r="R92" s="2" t="e">
+      <c r="E92" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="13">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P92" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>1</v>
+      </c>
+      <c r="R92" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U92" s="2" t="e">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="S92" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="T92" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="U92" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z92" s="2" t="e">
+        <v>37.830687830687829</v>
+      </c>
+      <c r="V92" s="10">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="W92" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="X92" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="Y92" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Z92" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC92" s="2" t="e">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AA92" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="AC92" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>4.986149584487535</v>
+      </c>
+      <c r="AD92" s="10">
+        <v>0.36099999999999999</v>
       </c>
       <c r="AE92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF92" s="2" t="e">
+      <c r="AF92" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG92" s="8" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI92" s="2" t="e">
+      <c r="AH92">
+        <v>1.9</v>
+      </c>
+      <c r="AI92" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>3.6538461538461537</v>
+      </c>
+      <c r="AJ92" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="AK92">
+        <v>1.9</v>
+      </c>
+      <c r="AL92">
+        <v>1.2</v>
+      </c>
+      <c r="AM92">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN92">
+        <v>0.9</v>
+      </c>
+      <c r="AO92">
+        <v>0.3</v>
+      </c>
+      <c r="AP92">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ92">
+        <v>0.2</v>
+      </c>
+      <c r="AR92">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS92" s="7">
         <f>AP92/(INDEX('PAdj Adjuster'!E:E, MATCH(C92, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>2.1455223880597019</v>
       </c>
       <c r="AT92" s="7">
         <f>AQ92/(INDEX('PAdj Adjuster'!E:E, MATCH(C92, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.18656716417910452</v>
+      </c>
+      <c r="AU92">
+        <v>6.83</v>
       </c>
       <c r="AV92">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX92" s="7" t="e">
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="AW92">
+        <v>1.9</v>
+      </c>
+      <c r="AX92" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>3.6538461538461537</v>
+      </c>
+      <c r="AY92" s="8">
+        <v>0.52</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -19085,56 +20557,161 @@
       <c r="D93" s="9">
         <v>720</v>
       </c>
-      <c r="R93" s="2" t="e">
+      <c r="E93" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="13">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="R93" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U93" s="2" t="e">
+        <v>2.4324324324324325</v>
+      </c>
+      <c r="S93" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="T93" s="2">
+        <v>48.3</v>
+      </c>
+      <c r="U93" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z93" s="2" t="e">
+        <v>56.756756756756758</v>
+      </c>
+      <c r="V93" s="10">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="W93" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="X93" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z93" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC93" s="2" t="e">
+        <v>1.25</v>
+      </c>
+      <c r="AA93" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC93" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>4.8780487804878048</v>
+      </c>
+      <c r="AD93" s="10">
+        <v>0.61499999999999999</v>
       </c>
       <c r="AE93">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF93" s="2" t="e">
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="AF93" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG93" s="8" t="e">
+        <v>18.780487804878049</v>
+      </c>
+      <c r="AG93" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI93" s="2" t="e">
+        <v>0.40999999999999992</v>
+      </c>
+      <c r="AH93">
+        <v>0.9</v>
+      </c>
+      <c r="AI93" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>2.1951219512195124</v>
+      </c>
+      <c r="AJ93" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="AK93">
+        <v>0.9</v>
+      </c>
+      <c r="AL93">
+        <v>2.8</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>0.6</v>
+      </c>
+      <c r="AO93">
+        <v>0.3</v>
+      </c>
+      <c r="AP93">
+        <v>1.6</v>
+      </c>
+      <c r="AQ93">
+        <v>0.8</v>
+      </c>
+      <c r="AR93">
+        <v>1</v>
       </c>
       <c r="AS93" s="7">
         <f>AP93/(INDEX('PAdj Adjuster'!E:E, MATCH(C93, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.6227180527383369</v>
       </c>
       <c r="AT93" s="7">
         <f>AQ93/(INDEX('PAdj Adjuster'!E:E, MATCH(C93, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.81135902636916846</v>
+      </c>
+      <c r="AU93">
+        <v>6.89</v>
       </c>
       <c r="AV93">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX93" s="7" t="e">
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="AW93">
+        <v>8.6</v>
+      </c>
+      <c r="AX93" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>20.975609756097562</v>
+      </c>
+      <c r="AY93" s="8">
+        <v>0.41</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -19147,56 +20724,161 @@
       <c r="D94" s="9">
         <v>652</v>
       </c>
-      <c r="R94" s="2" t="e">
+      <c r="E94" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="13">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P94" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R94" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U94" s="2" t="e">
+        <v>0.59701492537313428</v>
+      </c>
+      <c r="S94" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="T94" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="U94" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z94" s="2" t="e">
+        <v>41.549295774647888</v>
+      </c>
+      <c r="V94" s="10">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="W94" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="X94" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Z94" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC94" s="2" t="e">
+        <v>0.44977511244377805</v>
+      </c>
+      <c r="AA94" s="10">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>1.8761726078799248</v>
+      </c>
+      <c r="AD94" s="10">
+        <v>0.53300000000000003</v>
       </c>
       <c r="AE94">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF94" s="2" t="e">
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="AF94" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG94" s="8" t="e">
+        <v>10.701298701298702</v>
+      </c>
+      <c r="AG94" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI94" s="2" t="e">
+        <v>0.41116504854368924</v>
+      </c>
+      <c r="AH94">
+        <v>0.4</v>
+      </c>
+      <c r="AI94" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="AJ94" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK94">
+        <v>0.4</v>
+      </c>
+      <c r="AL94">
+        <v>0.7</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>0.1</v>
+      </c>
+      <c r="AO94">
+        <v>0.9</v>
+      </c>
+      <c r="AP94">
+        <v>0.9</v>
+      </c>
+      <c r="AQ94">
+        <v>0.4</v>
+      </c>
+      <c r="AR94">
+        <v>0.8</v>
       </c>
       <c r="AS94" s="7">
         <f>AP94/(INDEX('PAdj Adjuster'!E:E, MATCH(C94, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.84112149532710279</v>
       </c>
       <c r="AT94" s="7">
         <f>AQ94/(INDEX('PAdj Adjuster'!E:E, MATCH(C94, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.37383177570093457</v>
+      </c>
+      <c r="AU94">
+        <v>6.82</v>
       </c>
       <c r="AV94">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX94" s="7" t="e">
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="AW94">
+        <v>4.8</v>
+      </c>
+      <c r="AX94" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="AY94" s="8">
+        <v>0.42</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -19209,56 +20891,161 @@
       <c r="D95" s="9">
         <v>644</v>
       </c>
-      <c r="R95" s="2" t="e">
+      <c r="E95" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95" s="13">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R95" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U95" s="2" t="e">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="S95" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="T95" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="U95" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z95" s="2" t="e">
+        <v>33.700980392156865</v>
+      </c>
+      <c r="V95" s="10">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="W95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X95" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Z95" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC95" s="2" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="AA95" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AC95" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>3.3734939759036142</v>
+      </c>
+      <c r="AD95" s="10">
+        <v>0.41499999999999998</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF95" s="2" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="AF95" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG95" s="8" t="e">
+        <v>9.2022792022792022</v>
+      </c>
+      <c r="AG95" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI95" s="2" t="e">
+        <v>0.27167182662538703</v>
+      </c>
+      <c r="AH95">
+        <v>0.4</v>
+      </c>
+      <c r="AI95" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="AJ95" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="AK95">
+        <v>0.6</v>
+      </c>
+      <c r="AL95">
+        <v>0.4</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1.2</v>
+      </c>
+      <c r="AO95">
+        <v>0.2</v>
+      </c>
+      <c r="AP95">
+        <v>1.8</v>
+      </c>
+      <c r="AQ95">
+        <v>0.3</v>
+      </c>
+      <c r="AR95">
+        <v>1.5</v>
       </c>
       <c r="AS95" s="7">
         <f>AP95/(INDEX('PAdj Adjuster'!E:E, MATCH(C95, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.8255578093306291</v>
       </c>
       <c r="AT95" s="7">
         <f>AQ95/(INDEX('PAdj Adjuster'!E:E, MATCH(C95, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.3042596348884381</v>
+      </c>
+      <c r="AU95">
+        <v>6.47</v>
       </c>
       <c r="AV95">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX95" s="7" t="e">
+        <v>-3.0000000000000249E-2</v>
+      </c>
+      <c r="AW95">
+        <v>2.9</v>
+      </c>
+      <c r="AX95" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>10.74074074074074</v>
+      </c>
+      <c r="AY95" s="8">
+        <v>0.27</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -19271,53 +21058,158 @@
       <c r="D96" s="9">
         <v>630</v>
       </c>
-      <c r="R96" s="2" t="e">
+      <c r="E96" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F96" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+      <c r="K96" s="13">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R96" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U96" s="2" t="e">
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="S96" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="T96" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="U96" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z96" s="2" t="e">
+        <v>53.643966547192356</v>
+      </c>
+      <c r="V96" s="10">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="W96" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="X96" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Z96" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC96" s="2" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="AA96" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AC96" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>8.4358523725834811</v>
+      </c>
+      <c r="AD96" s="10">
+        <v>0.56899999999999995</v>
       </c>
       <c r="AE96">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF96" s="2" t="e">
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="AF96" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG96" s="8" t="e">
+        <v>20.540355677154579</v>
+      </c>
+      <c r="AG96" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI96" s="2" t="e">
+        <v>0.33592407592407597</v>
+      </c>
+      <c r="AH96">
+        <v>0.4</v>
+      </c>
+      <c r="AI96" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="AJ96" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="AK96">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AL96">
+        <v>2.1</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0.4</v>
+      </c>
+      <c r="AO96">
+        <v>0.4</v>
+      </c>
+      <c r="AP96">
+        <v>2.8</v>
+      </c>
+      <c r="AQ96">
+        <v>1.2</v>
+      </c>
+      <c r="AR96">
+        <v>1.6</v>
       </c>
       <c r="AS96" s="7">
         <f>AP96/(INDEX('PAdj Adjuster'!E:E, MATCH(C96, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>2.5688073394495414</v>
       </c>
       <c r="AT96" s="7">
         <f>AQ96/(INDEX('PAdj Adjuster'!E:E, MATCH(C96, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.1009174311926606</v>
+      </c>
+      <c r="AU96">
+        <v>7.1</v>
       </c>
       <c r="AV96">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX96" s="7" t="e">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AW96">
+        <v>7.3</v>
+      </c>
+      <c r="AX96" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>21.470588235294116</v>
+      </c>
+      <c r="AY96" s="8">
+        <v>0.34</v>
       </c>
     </row>
     <row r="97" spans="1:51" x14ac:dyDescent="0.35">
@@ -19333,53 +21225,158 @@
       <c r="D97" s="9">
         <v>611</v>
       </c>
-      <c r="R97" s="2" t="e">
+      <c r="E97" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+      <c r="K97" s="13">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R97" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U97" s="2" t="e">
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="S97" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T97" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="U97" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>44.871794871794876</v>
+      </c>
+      <c r="V97" s="10">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="W97" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X97" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="7">
+        <v>0</v>
       </c>
       <c r="Z97" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC97" s="2" t="e">
+      <c r="AA97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AC97" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="AD97" s="10">
+        <v>0.38500000000000001</v>
       </c>
       <c r="AE97">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF97" s="2" t="e">
+        <v>5.3</v>
+      </c>
+      <c r="AF97" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG97" s="8" t="e">
+        <v>14.782818532818533</v>
+      </c>
+      <c r="AG97" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI97" s="2" t="e">
+        <v>0.35852432255958211</v>
+      </c>
+      <c r="AH97">
+        <v>0.5</v>
+      </c>
+      <c r="AI97" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="AJ97" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AK97">
+        <v>1.3</v>
+      </c>
+      <c r="AL97">
+        <v>1.7</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>0.7</v>
+      </c>
+      <c r="AO97">
+        <v>0.3</v>
+      </c>
+      <c r="AP97">
+        <v>1.8</v>
+      </c>
+      <c r="AQ97">
+        <v>0.6</v>
+      </c>
+      <c r="AR97">
+        <v>1.6</v>
       </c>
       <c r="AS97" s="7">
         <f>AP97/(INDEX('PAdj Adjuster'!E:E, MATCH(C97, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.7821782178217822</v>
       </c>
       <c r="AT97" s="7">
         <f>AQ97/(INDEX('PAdj Adjuster'!E:E, MATCH(C97, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="AU97">
+        <v>6.68</v>
       </c>
       <c r="AV97">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX97" s="7" t="e">
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="AW97">
+        <v>5.8</v>
+      </c>
+      <c r="AX97" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>15.675675675675675</v>
+      </c>
+      <c r="AY97" s="8">
+        <v>0.37</v>
       </c>
     </row>
     <row r="98" spans="1:51" x14ac:dyDescent="0.35">
@@ -19395,53 +21392,158 @@
       <c r="D98" s="9">
         <v>576</v>
       </c>
-      <c r="R98" s="2" t="e">
+      <c r="E98" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+      <c r="K98" s="13">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
+        <v>0</v>
+      </c>
+      <c r="N98" s="2">
+        <v>0</v>
+      </c>
+      <c r="O98" s="2">
+        <v>0</v>
+      </c>
+      <c r="P98" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R98" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U98" s="2" t="e">
+        <v>0.625</v>
+      </c>
+      <c r="S98" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="T98" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="U98" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z98" s="2" t="e">
+        <v>34.18181818181818</v>
+      </c>
+      <c r="V98" s="10">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="W98" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="X98" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Z98" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC98" s="2" t="e">
+        <v>0.3003003003003003</v>
+      </c>
+      <c r="AA98" s="10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="AC98" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>4.5346062052505962</v>
+      </c>
+      <c r="AD98" s="10">
+        <v>0.41899999999999998</v>
       </c>
       <c r="AE98">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF98" s="2" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="AF98" s="2">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG98" s="8" t="e">
+        <v>7.5757575757575752</v>
+      </c>
+      <c r="AG98" s="8">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI98" s="2" t="e">
+        <v>0.33</v>
+      </c>
+      <c r="AH98">
+        <v>0.4</v>
+      </c>
+      <c r="AI98" s="2">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.2121212121212122</v>
+      </c>
+      <c r="AJ98" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="AK98">
+        <v>0.8</v>
+      </c>
+      <c r="AL98">
+        <v>0.1</v>
+      </c>
+      <c r="AM98">
+        <v>0.1</v>
+      </c>
+      <c r="AN98">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO98">
+        <v>0.3</v>
+      </c>
+      <c r="AP98">
+        <v>1.8</v>
+      </c>
+      <c r="AQ98">
+        <v>0.6</v>
+      </c>
+      <c r="AR98">
+        <v>1.2</v>
       </c>
       <c r="AS98" s="7">
         <f>AP98/(INDEX('PAdj Adjuster'!E:E, MATCH(C98, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>1.8255578093306291</v>
       </c>
       <c r="AT98" s="7">
         <f>AQ98/(INDEX('PAdj Adjuster'!E:E, MATCH(C98, 'PAdj Adjuster'!A:A, 0))) * 30</f>
-        <v>0</v>
+        <v>0.6085192697768762</v>
+      </c>
+      <c r="AU98">
+        <v>6.5</v>
       </c>
       <c r="AV98">
         <f t="shared" si="18"/>
-        <v>-6.5</v>
-      </c>
-      <c r="AX98" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="AW98">
+        <v>2.9</v>
+      </c>
+      <c r="AX98" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>8.7878787878787872</v>
+      </c>
+      <c r="AY98" s="8">
+        <v>0.33</v>
       </c>
     </row>
     <row r="99" spans="1:51" x14ac:dyDescent="0.35">
@@ -31391,7 +33493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -31461,7 +33563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -31531,7 +33633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>202</v>
       </c>
@@ -31557,7 +33659,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U195" s="2" t="e">
-        <f t="shared" ref="U195:U207" si="37">T195/V195</f>
+        <f t="shared" ref="U195:U208" si="37">T195/V195</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z195" s="2" t="e">
@@ -31565,7 +33667,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AC195" s="2" t="e">
-        <f t="shared" ref="AC195:AC207" si="39">AB195/AD195</f>
+        <f t="shared" ref="AC195:AC208" si="39">AB195/AD195</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE195">
@@ -31581,7 +33683,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AI195" s="2" t="e">
-        <f t="shared" ref="AI195:AI207" si="40">AH195/AJ195</f>
+        <f t="shared" ref="AI195:AI208" si="40">AH195/AJ195</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS195" s="7">
@@ -31593,7 +33695,7 @@
         <v>0</v>
       </c>
       <c r="AV195">
-        <f t="shared" ref="AV195:AV207" si="41">AU195-6.5</f>
+        <f t="shared" ref="AV195:AV208" si="41">AU195-6.5</f>
         <v>-6.5</v>
       </c>
       <c r="AX195" s="7" t="e">
@@ -31601,7 +33703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>205</v>
       </c>
@@ -31671,7 +33773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>210</v>
       </c>
@@ -31737,11 +33839,11 @@
         <v>-6.5</v>
       </c>
       <c r="AX197" s="7" t="e">
-        <f t="shared" ref="AX197:AX207" si="42">AW197/AY197</f>
+        <f t="shared" ref="AX197:AX208" si="42">AW197/AY197</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -31779,7 +33881,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AE198">
-        <f t="shared" ref="AE198:AE207" si="43">AW198-AH198</f>
+        <f t="shared" ref="AE198:AE208" si="43">AW198-AH198</f>
         <v>0</v>
       </c>
       <c r="AF198" s="2" t="e">
@@ -31811,7 +33913,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -31881,7 +33983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>224</v>
       </c>
@@ -31951,7 +34053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>232</v>
       </c>
@@ -32021,7 +34123,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>234</v>
       </c>
@@ -32091,7 +34193,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>237</v>
       </c>
@@ -32105,7 +34207,7 @@
         <v>580</v>
       </c>
       <c r="J203" s="2" t="e">
-        <f t="shared" ref="J203:J207" si="46">I203/K203</f>
+        <f t="shared" ref="J203:J208" si="46">I203/K203</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N203" s="2">
@@ -32161,7 +34263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>238</v>
       </c>
@@ -32231,7 +34333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="205" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>244</v>
       </c>
@@ -32298,7 +34400,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="206" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>249</v>
       </c>
@@ -32365,7 +34467,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="207" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>250</v>
       </c>
@@ -32430,6 +34532,172 @@
       <c r="AX207" s="7" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>286</v>
+      </c>
+      <c r="B208" t="s">
+        <v>253</v>
+      </c>
+      <c r="C208" t="s">
+        <v>263</v>
+      </c>
+      <c r="D208" s="9">
+        <v>720</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0</v>
+      </c>
+      <c r="F208" s="2">
+        <v>0</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="J208" s="2">
+        <f t="shared" si="46"/>
+        <v>4.838709677419355</v>
+      </c>
+      <c r="K208" s="13">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="L208" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="M208" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="N208" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O208" s="2">
+        <v>0</v>
+      </c>
+      <c r="P208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>0</v>
+      </c>
+      <c r="R208" s="2">
+        <v>0</v>
+      </c>
+      <c r="S208" s="10">
+        <v>0</v>
+      </c>
+      <c r="T208" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="U208" s="2">
+        <f t="shared" si="37"/>
+        <v>31.94278903456496</v>
+      </c>
+      <c r="V208" s="10">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="W208" s="7">
+        <v>0</v>
+      </c>
+      <c r="X208" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="AC208" s="2">
+        <f t="shared" si="39"/>
+        <v>10.29668411867365</v>
+      </c>
+      <c r="AD208" s="10">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AE208">
+        <f t="shared" si="43"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AF208" s="2">
+        <f t="shared" ref="AF208" si="48">AX208-AI208</f>
+        <v>0.44418604651162785</v>
+      </c>
+      <c r="AG208" s="8">
+        <f t="shared" ref="AG208" si="49">AE208/AF208</f>
+        <v>0.45026178010471202</v>
+      </c>
+      <c r="AH208">
+        <v>1.3</v>
+      </c>
+      <c r="AI208" s="2">
+        <f t="shared" si="40"/>
+        <v>1.3</v>
+      </c>
+      <c r="AJ208" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK208">
+        <v>0</v>
+      </c>
+      <c r="AL208">
+        <v>0</v>
+      </c>
+      <c r="AM208">
+        <v>0</v>
+      </c>
+      <c r="AN208">
+        <v>1</v>
+      </c>
+      <c r="AO208">
+        <v>0</v>
+      </c>
+      <c r="AP208">
+        <v>2.8</v>
+      </c>
+      <c r="AQ208">
+        <v>0.1</v>
+      </c>
+      <c r="AR208">
+        <v>0.1</v>
+      </c>
+      <c r="AS208" s="7">
+        <f>AP208/(INDEX('PAdj Adjuster'!E:E, MATCH(C208, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>2.661596958174905</v>
+      </c>
+      <c r="AT208" s="7">
+        <f>AQ208/(INDEX('PAdj Adjuster'!E:E, MATCH(C208, 'PAdj Adjuster'!A:A, 0))) * 30</f>
+        <v>9.5057034220532327E-2</v>
+      </c>
+      <c r="AU208">
+        <v>7.48</v>
+      </c>
+      <c r="AV208">
+        <f t="shared" si="41"/>
+        <v>0.98000000000000043</v>
+      </c>
+      <c r="AW208">
+        <v>1.5</v>
+      </c>
+      <c r="AX208" s="7">
+        <f t="shared" si="42"/>
+        <v>1.7441860465116279</v>
+      </c>
+      <c r="AY208" s="8">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -32802,23 +35070,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e7c35617-924a-4a13-8582-9856c8b54434" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100619DA3307FCCEE489DAE87EF30524D7A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68efe2dfb79f0a86588f41315f1271d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e7c35617-924a-4a13-8582-9856c8b54434" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82ca29647680df2c0730a4bd57417340" ns3:_="">
     <xsd:import namespace="e7c35617-924a-4a13-8582-9856c8b54434"/>
@@ -32974,31 +35225,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F4FCA79-C296-4582-BA57-224B636CC06A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e7c35617-924a-4a13-8582-9856c8b54434"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C2D1EF-8402-48CB-92F6-54D6D7B3C154}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e7c35617-924a-4a13-8582-9856c8b54434" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ACF2941-C055-45B5-9CE2-E3241FDA7779}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33014,4 +35258,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C2D1EF-8402-48CB-92F6-54D6D7B3C154}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F4FCA79-C296-4582-BA57-224B636CC06A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e7c35617-924a-4a13-8582-9856c8b54434"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>